--- a/InputData/elec/BHRaSYC/BAU Heat Rates and Start Year Capacities.xlsx
+++ b/InputData/elec/BHRaSYC/BAU Heat Rates and Start Year Capacities.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://energyinnovation.sharepoint.com/sites/EUEPSModeling/Shared Documents/InputData_Artelys/elec/BHRaSYC/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mary Francis Swint\Vensim\eps-eu\InputData\elec\BHRaSYC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="76" documentId="8_{1FB6D847-720B-4AB4-BE6B-5DEDD8A07658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70C1451B-4639-450D-BE48-E571DB040DAB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E9AC9B-5271-4AA7-9CF8-E14388EB89C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5400" yWindow="645" windowWidth="21600" windowHeight="11175" firstSheet="5" activeTab="8" xr2:uid="{58905A94-BA09-4443-B274-BF752AC962AF}"/>
+    <workbookView xWindow="2450" yWindow="1520" windowWidth="14400" windowHeight="8170" firstSheet="6" activeTab="7" xr2:uid="{58905A94-BA09-4443-B274-BF752AC962AF}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="13" r:id="rId1"/>
@@ -1940,22 +1940,22 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="10.85546875" style="44"/>
-    <col min="3" max="3" width="45.28515625" style="44" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.85546875" style="44"/>
+    <col min="1" max="2" width="10.81640625" style="44"/>
+    <col min="3" max="3" width="45.26953125" style="44" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.81640625" style="44"/>
   </cols>
   <sheetData>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B11" s="43" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B12" s="45"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B13" s="45" t="s">
         <v>1</v>
       </c>
@@ -1966,7 +1966,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B14" s="45"/>
       <c r="C14" s="45" t="s">
         <v>4</v>
@@ -1975,7 +1975,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B15" s="45"/>
       <c r="C15" s="45" t="s">
         <v>6</v>
@@ -1984,7 +1984,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C16" s="45" t="s">
         <v>8</v>
       </c>
@@ -1992,7 +1992,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C17" s="45" t="s">
         <v>10</v>
       </c>
@@ -2000,7 +2000,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C18" s="45" t="s">
         <v>12</v>
       </c>
@@ -2008,7 +2008,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C19" s="45" t="s">
         <v>14</v>
       </c>
@@ -2016,97 +2016,97 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C20" s="48"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B21" s="46" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B22" s="74" t="s">
         <v>17</v>
       </c>
       <c r="C22" s="47"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B23" s="74" t="s">
         <v>18</v>
       </c>
       <c r="C23" s="47"/>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B24" s="74" t="s">
         <v>19</v>
       </c>
       <c r="C24" s="47"/>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B25" s="74" t="s">
         <v>20</v>
       </c>
       <c r="C25" s="47"/>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B26" s="75" t="s">
         <v>21</v>
       </c>
       <c r="C26" s="47"/>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B27" s="74"/>
       <c r="C27" s="47"/>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B28" s="47"/>
       <c r="C28" s="47"/>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B29" s="74" t="s">
         <v>22</v>
       </c>
       <c r="C29" s="74"/>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B30" s="74"/>
       <c r="C30" s="76" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B31" s="74"/>
       <c r="C31" s="76" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B32" s="74"/>
       <c r="C32" s="76" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B33" s="47"/>
       <c r="C33" s="47"/>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B34" s="47"/>
       <c r="C34" s="47"/>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B35" s="47"/>
       <c r="C35" s="47"/>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B36" s="47"/>
       <c r="C36" s="47"/>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B37" s="47"/>
       <c r="C37" s="47"/>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B38" s="47"/>
       <c r="C38" s="47"/>
     </row>
@@ -2131,12 +2131,12 @@
       <selection activeCell="A21" sqref="A21:E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>26</v>
       </c>
@@ -2153,7 +2153,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -2170,7 +2170,7 @@
         <v>74886</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -2187,7 +2187,7 @@
         <v>104643</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -2204,7 +2204,7 @@
         <v>108828</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -2221,7 +2221,7 @@
         <v>173233</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -2238,7 +2238,7 @@
         <v>162354</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -2255,7 +2255,7 @@
         <v>2321</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -2272,7 +2272,7 @@
         <v>21045</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -2289,7 +2289,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -2306,7 +2306,7 @@
         <v>47210</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>37</v>
       </c>
@@ -2323,7 +2323,7 @@
         <v>15137</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -2340,7 +2340,7 @@
         <v>16954</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -2357,7 +2357,7 @@
         <v>4346</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -2374,7 +2374,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -2391,7 +2391,7 @@
         <v>159729.6721919495</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>42</v>
       </c>
@@ -2408,7 +2408,7 @@
         <v>7430.1221289052428</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>43</v>
       </c>
@@ -2425,7 +2425,7 @@
         <v>13199.205679145252</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -2442,7 +2442,7 @@
         <v>180359</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>45</v>
       </c>
@@ -2459,7 +2459,7 @@
         <v>114216</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -2476,7 +2476,7 @@
         <v>41683</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="52" t="s">
         <v>47</v>
       </c>
@@ -2496,7 +2496,7 @@
         <v>55200.36</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="58" t="s">
         <v>48</v>
       </c>
@@ -2516,54 +2516,54 @@
         <v>107153.64</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="54"/>
       <c r="C23" s="55"/>
       <c r="D23" s="55"/>
       <c r="E23" s="55"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="56" t="s">
         <v>55</v>
       </c>
       <c r="B31" s="57"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="50" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="17" t="s">
         <v>57</v>
       </c>
@@ -2571,7 +2571,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>58</v>
       </c>
@@ -2579,7 +2579,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>59</v>
       </c>
@@ -2603,18 +2603,18 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.140625" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" customWidth="1"/>
-    <col min="6" max="6" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.1796875" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.453125" customWidth="1"/>
+    <col min="6" max="6" width="28.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="19" t="s">
         <v>60</v>
       </c>
@@ -2632,7 +2632,7 @@
       </c>
       <c r="F2" s="17"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="28" t="s">
         <v>27</v>
       </c>
@@ -2650,7 +2650,7 @@
         <v>53935</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="14" t="s">
         <v>28</v>
       </c>
@@ -2668,7 +2668,7 @@
         <v>101730</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="14" t="s">
         <v>29</v>
       </c>
@@ -2687,7 +2687,7 @@
         <v>139985</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="14" t="s">
         <v>30</v>
       </c>
@@ -2705,7 +2705,7 @@
         <v>162872</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="14" t="s">
         <v>65</v>
       </c>
@@ -2724,7 +2724,7 @@
         <v>136377</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="14" t="s">
         <v>34</v>
       </c>
@@ -2742,7 +2742,7 @@
         <v>12760</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="14" t="s">
         <v>35</v>
       </c>
@@ -2759,7 +2759,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="14" t="s">
         <v>36</v>
       </c>
@@ -2777,7 +2777,7 @@
         <v>46171</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="14" t="s">
         <v>37</v>
       </c>
@@ -2795,7 +2795,7 @@
         <v>14535</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="14" t="s">
         <v>38</v>
       </c>
@@ -2813,7 +2813,7 @@
         <v>23097</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="14" t="s">
         <v>39</v>
       </c>
@@ -2830,7 +2830,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="14" t="s">
         <v>40</v>
       </c>
@@ -2848,7 +2848,7 @@
         <v>10987</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="14" t="s">
         <v>41</v>
       </c>
@@ -2866,7 +2866,7 @@
         <v>120107</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="14" t="s">
         <v>42</v>
       </c>
@@ -2884,7 +2884,7 @@
         <v>5587</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="14" t="s">
         <v>43</v>
       </c>
@@ -2902,7 +2902,7 @@
         <v>9925</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="14" t="s">
         <v>44</v>
       </c>
@@ -2923,7 +2923,7 @@
         <v>135619</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="14" t="s">
         <v>32</v>
       </c>
@@ -2939,7 +2939,7 @@
       </c>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="14" t="s">
         <v>67</v>
       </c>
@@ -2954,7 +2954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="60" t="s">
         <v>47</v>
       </c>
@@ -2972,7 +2972,7 @@
         <v>41693</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="62" t="s">
         <v>48</v>
       </c>
@@ -2990,26 +2990,26 @@
         <v>92380</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="9"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
     </row>
   </sheetData>
@@ -3025,15 +3025,15 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="34.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="19" t="s">
         <v>70</v>
       </c>
@@ -3053,7 +3053,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="28" t="s">
         <v>27</v>
       </c>
@@ -3077,7 +3077,7 @@
         <v>74886</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="14" t="s">
         <v>28</v>
       </c>
@@ -3101,7 +3101,7 @@
         <v>104643</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="14" t="s">
         <v>29</v>
       </c>
@@ -3125,7 +3125,7 @@
         <v>108828</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="14" t="s">
         <v>30</v>
       </c>
@@ -3149,7 +3149,7 @@
         <v>173233</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="14" t="s">
         <v>65</v>
       </c>
@@ -3173,7 +3173,7 @@
         <v>162354</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="14" t="s">
         <v>34</v>
       </c>
@@ -3197,7 +3197,7 @@
         <v>21045</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="14" t="s">
         <v>35</v>
       </c>
@@ -3221,7 +3221,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="14" t="s">
         <v>36</v>
       </c>
@@ -3245,7 +3245,7 @@
         <v>47210</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="14" t="s">
         <v>37</v>
       </c>
@@ -3269,7 +3269,7 @@
         <v>15137</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="14" t="s">
         <v>38</v>
       </c>
@@ -3293,7 +3293,7 @@
         <v>16954</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="14" t="s">
         <v>39</v>
       </c>
@@ -3317,7 +3317,7 @@
         <v>4346</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="14" t="s">
         <v>40</v>
       </c>
@@ -3341,7 +3341,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="14" t="s">
         <v>41</v>
       </c>
@@ -3365,7 +3365,7 @@
         <v>159729.6721919495</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="14" t="s">
         <v>42</v>
       </c>
@@ -3389,7 +3389,7 @@
         <v>7430.1221289052428</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="14" t="s">
         <v>43</v>
       </c>
@@ -3413,7 +3413,7 @@
         <v>13199.205679145252</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="14" t="s">
         <v>44</v>
       </c>
@@ -3437,7 +3437,7 @@
         <v>180359</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="14" t="s">
         <v>32</v>
       </c>
@@ -3461,7 +3461,7 @@
         <v>162354</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="14" t="s">
         <v>33</v>
       </c>
@@ -3485,7 +3485,7 @@
         <v>2321</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="60" t="s">
         <v>47</v>
       </c>
@@ -3508,7 +3508,7 @@
         <v>55200.36</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="62" t="s">
         <v>48</v>
       </c>
@@ -3531,22 +3531,22 @@
         <v>107153.64</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="17" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>75</v>
       </c>
@@ -3564,20 +3564,20 @@
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="40.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="40.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="11" t="s">
         <v>26</v>
       </c>
@@ -3594,7 +3594,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="28" t="s">
         <v>27</v>
       </c>
@@ -3609,7 +3609,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="14" t="s">
         <v>28</v>
       </c>
@@ -3629,7 +3629,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="38" t="s">
         <v>29</v>
       </c>
@@ -3638,7 +3638,7 @@
       <c r="D5" s="82"/>
       <c r="E5" s="18"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="38" t="s">
         <v>30</v>
       </c>
@@ -3647,7 +3647,7 @@
       <c r="D6" s="82"/>
       <c r="E6" s="18"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="38" t="s">
         <v>65</v>
       </c>
@@ -3656,7 +3656,7 @@
       <c r="D7" s="82"/>
       <c r="E7" s="18"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="14" t="s">
         <v>34</v>
       </c>
@@ -3672,7 +3672,7 @@
         <v>0.318</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="38" t="s">
         <v>35</v>
       </c>
@@ -3681,7 +3681,7 @@
       <c r="D9" s="82"/>
       <c r="E9" s="18"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="14" t="s">
         <v>36</v>
       </c>
@@ -3696,7 +3696,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="38" t="s">
         <v>37</v>
       </c>
@@ -3705,7 +3705,7 @@
       <c r="D11" s="82"/>
       <c r="E11" s="18"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="14" t="s">
         <v>38</v>
       </c>
@@ -3720,7 +3720,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="14" t="s">
         <v>39</v>
       </c>
@@ -3735,7 +3735,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="38" t="s">
         <v>40</v>
       </c>
@@ -3744,7 +3744,7 @@
       <c r="D14" s="82"/>
       <c r="E14" s="18"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="14" t="s">
         <v>82</v>
       </c>
@@ -3759,7 +3759,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="14" t="s">
         <v>83</v>
       </c>
@@ -3774,7 +3774,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="14" t="s">
         <v>84</v>
       </c>
@@ -3789,7 +3789,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="14" t="s">
         <v>44</v>
       </c>
@@ -3798,7 +3798,7 @@
       <c r="D18" s="82"/>
       <c r="E18" s="18"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="26" t="s">
         <v>85</v>
       </c>
@@ -3813,7 +3813,7 @@
         <v>0.3412</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="26" t="s">
         <v>86</v>
       </c>
@@ -3828,7 +3828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="26" t="s">
         <v>87</v>
       </c>
@@ -3843,7 +3843,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="26" t="s">
         <v>88</v>
       </c>
@@ -3858,7 +3858,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="26" t="s">
         <v>89</v>
       </c>
@@ -3873,7 +3873,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="26" t="s">
         <v>90</v>
       </c>
@@ -3888,7 +3888,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="26" t="s">
         <v>91</v>
       </c>
@@ -3906,7 +3906,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="85" t="s">
         <v>93</v>
       </c>
@@ -3924,7 +3924,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="86" t="s">
         <v>95</v>
       </c>
@@ -3939,42 +3939,42 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="31" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="30" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="33" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" s="34" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" s="35" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" s="41" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" s="78" t="s">
         <v>101</v>
       </c>
@@ -3997,13 +3997,13 @@
       <selection activeCell="A19" sqref="A19:A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="41.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="41.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="28" t="s">
         <v>76</v>
       </c>
@@ -4012,7 +4012,7 @@
       <c r="D1" s="24"/>
       <c r="E1" s="24"/>
     </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="19" t="s">
         <v>26</v>
       </c>
@@ -4029,7 +4029,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="28" t="s">
         <v>27</v>
       </c>
@@ -4047,7 +4047,7 @@
         <v>2.2727272727272729</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="14" t="s">
         <v>28</v>
       </c>
@@ -4068,7 +4068,7 @@
         <v>2.7027027027027026</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="14" t="s">
         <v>29</v>
       </c>
@@ -4077,7 +4077,7 @@
       <c r="D5" s="82"/>
       <c r="E5" s="18"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="14" t="s">
         <v>30</v>
       </c>
@@ -4086,7 +4086,7 @@
       <c r="D6" s="82"/>
       <c r="E6" s="18"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="14" t="s">
         <v>65</v>
       </c>
@@ -4095,7 +4095,7 @@
       <c r="D7" s="82"/>
       <c r="E7" s="18"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="14" t="s">
         <v>34</v>
       </c>
@@ -4113,7 +4113,7 @@
         <v>3.1446540880503142</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="14" t="s">
         <v>35</v>
       </c>
@@ -4122,7 +4122,7 @@
       <c r="D9" s="82"/>
       <c r="E9" s="18"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="14" t="s">
         <v>36</v>
       </c>
@@ -4140,7 +4140,7 @@
         <v>2.4390243902439024</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="14" t="s">
         <v>37</v>
       </c>
@@ -4149,7 +4149,7 @@
       <c r="D11" s="82"/>
       <c r="E11" s="18"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="14" t="s">
         <v>38</v>
       </c>
@@ -4167,7 +4167,7 @@
         <v>2.8571428571428572</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="14" t="s">
         <v>39</v>
       </c>
@@ -4185,7 +4185,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="14" t="s">
         <v>40</v>
       </c>
@@ -4194,7 +4194,7 @@
       <c r="D14" s="82"/>
       <c r="E14" s="18"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="14" t="s">
         <v>41</v>
       </c>
@@ -4212,7 +4212,7 @@
         <v>1.9230769230769229</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="14" t="s">
         <v>42</v>
       </c>
@@ -4230,7 +4230,7 @@
         <v>2.9411764705882351</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="14" t="s">
         <v>43</v>
       </c>
@@ -4248,7 +4248,7 @@
         <v>1.3333333333333333</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="14" t="s">
         <v>44</v>
       </c>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="26" t="s">
         <v>85</v>
       </c>
@@ -4284,7 +4284,7 @@
         <v>2.9308323563892147</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="26" t="s">
         <v>86</v>
       </c>
@@ -4302,7 +4302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="26" t="s">
         <v>87</v>
       </c>
@@ -4320,7 +4320,7 @@
         <v>2.7027027027027026</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="26" t="s">
         <v>88</v>
       </c>
@@ -4338,7 +4338,7 @@
         <v>2.3255813953488373</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="26" t="s">
         <v>89</v>
       </c>
@@ -4356,7 +4356,7 @@
         <v>3.7037037037037033</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="26" t="s">
         <v>90</v>
       </c>
@@ -4374,7 +4374,7 @@
         <v>3.125</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="26" t="s">
         <v>91</v>
       </c>
@@ -4392,7 +4392,7 @@
         <v>3.0303030303030303</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="85" t="s">
         <v>93</v>
       </c>
@@ -4410,7 +4410,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="86" t="s">
         <v>95</v>
       </c>
@@ -4428,13 +4428,13 @@
         <v>1.9230769230769229</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
     </row>
   </sheetData>
@@ -4450,12 +4450,12 @@
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="5" width="41.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="41.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="22" t="s">
         <v>76</v>
       </c>
@@ -4463,7 +4463,7 @@
       <c r="C1" s="23"/>
       <c r="D1" s="23"/>
     </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="68" t="s">
         <v>26</v>
       </c>
@@ -4480,7 +4480,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="68" t="s">
         <v>27</v>
       </c>
@@ -4498,7 +4498,7 @@
         <v>7754863.6363636367</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="26" t="s">
         <v>28</v>
       </c>
@@ -4519,7 +4519,7 @@
         <v>9222000</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="26" t="s">
         <v>29</v>
       </c>
@@ -4528,7 +4528,7 @@
       <c r="D5" s="90"/>
       <c r="E5" s="73"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="26" t="s">
         <v>30</v>
       </c>
@@ -4537,7 +4537,7 @@
       <c r="D6" s="90"/>
       <c r="E6" s="73"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="26" t="s">
         <v>65</v>
       </c>
@@ -4546,7 +4546,7 @@
       <c r="D7" s="92"/>
       <c r="E7" s="73"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="26" t="s">
         <v>34</v>
       </c>
@@ -4564,7 +4564,7 @@
         <v>10729999.999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="26" t="s">
         <v>35</v>
       </c>
@@ -4573,7 +4573,7 @@
       <c r="D9" s="92"/>
       <c r="E9" s="73"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="26" t="s">
         <v>36</v>
       </c>
@@ -4591,7 +4591,7 @@
         <v>8322292.682926829</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="26" t="s">
         <v>37</v>
       </c>
@@ -4600,7 +4600,7 @@
       <c r="D11" s="92"/>
       <c r="E11" s="73"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="26" t="s">
         <v>38</v>
       </c>
@@ -4618,7 +4618,7 @@
         <v>9748971.4285714291</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="26" t="s">
         <v>39</v>
       </c>
@@ -4636,7 +4636,7 @@
         <v>17060700</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="26" t="s">
         <v>40</v>
       </c>
@@ -4645,7 +4645,7 @@
       <c r="D14" s="92"/>
       <c r="E14" s="73"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="26" t="s">
         <v>41</v>
       </c>
@@ -4663,7 +4663,7 @@
         <v>6561807.6923076911</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="26" t="s">
         <v>42</v>
       </c>
@@ -4681,7 +4681,7 @@
         <v>10035705.882352941</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="14" t="s">
         <v>43</v>
       </c>
@@ -4699,7 +4699,7 @@
         <v>4549519.9999999991</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="14" t="s">
         <v>32</v>
       </c>
@@ -4708,7 +4708,7 @@
       <c r="D18" s="90"/>
       <c r="E18" s="73"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="14" t="s">
         <v>33</v>
       </c>
@@ -4717,7 +4717,7 @@
       <c r="D19" s="90"/>
       <c r="E19" s="73"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="26" t="s">
         <v>85</v>
       </c>
@@ -4735,7 +4735,7 @@
         <v>10000410.316529894</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="26" t="s">
         <v>86</v>
       </c>
@@ -4753,7 +4753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="26" t="s">
         <v>87</v>
       </c>
@@ -4771,7 +4771,7 @@
         <v>9222000</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="26" t="s">
         <v>88</v>
       </c>
@@ -4789,7 +4789,7 @@
         <v>7935209.3023255812</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="26" t="s">
         <v>89</v>
       </c>
@@ -4807,7 +4807,7 @@
         <v>12637555.555555552</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="26" t="s">
         <v>90</v>
       </c>
@@ -4825,7 +4825,7 @@
         <v>10662937.5</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="26" t="s">
         <v>91</v>
       </c>
@@ -4843,7 +4843,7 @@
         <v>10339818.181818182</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="85" t="s">
         <v>93</v>
       </c>
@@ -4861,7 +4861,7 @@
         <v>8530350</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="86" t="s">
         <v>95</v>
       </c>
@@ -4879,13 +4879,13 @@
         <v>6561807.6923076911</v>
       </c>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C33">
         <f>9684100/(3412*1000)</f>
         <v>2.838247362250879</v>
       </c>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C34">
         <f>1/C33</f>
         <v>0.35233010811536436</v>
@@ -4903,19 +4903,19 @@
   </sheetPr>
   <dimension ref="A1:HC25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="DP1" activePane="topRight" state="frozen"/>
       <selection activeCell="B25" sqref="B25:HC25"/>
-      <selection pane="topRight" activeCell="D12" sqref="D12"/>
+      <selection pane="topRight" activeCell="DQ27" sqref="DQ27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="36.28515625" customWidth="1"/>
-    <col min="2" max="211" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="36.26953125" customWidth="1"/>
+    <col min="2" max="211" width="13.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:211" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:211" x14ac:dyDescent="0.35">
       <c r="A1" s="95" t="s">
         <v>106</v>
       </c>
@@ -5550,7 +5550,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="2" spans="1:211" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:211" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -6186,7 +6186,7 @@
         <v>7754863.6363636367</v>
       </c>
     </row>
-    <row r="3" spans="1:211" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:211" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>317</v>
       </c>
@@ -6822,7 +6822,7 @@
         <v>4549519.9999999991</v>
       </c>
     </row>
-    <row r="4" spans="1:211" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:211" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>82</v>
       </c>
@@ -7458,7 +7458,7 @@
         <v>6561807.6923076911</v>
       </c>
     </row>
-    <row r="5" spans="1:211" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:211" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>318</v>
       </c>
@@ -8094,7 +8094,7 @@
         <v>9222000</v>
       </c>
     </row>
-    <row r="6" spans="1:211" s="97" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:211" s="97" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="97" t="s">
         <v>29</v>
       </c>
@@ -8455,99 +8455,281 @@
       <c r="DP6" s="98">
         <v>0</v>
       </c>
-      <c r="DQ6" s="98"/>
-      <c r="DR6" s="98"/>
-      <c r="DS6" s="98"/>
-      <c r="DT6" s="98"/>
-      <c r="DU6" s="98"/>
-      <c r="DV6" s="98"/>
-      <c r="DW6" s="98"/>
-      <c r="DX6" s="98"/>
-      <c r="DY6" s="98"/>
-      <c r="DZ6" s="98"/>
-      <c r="EA6" s="98"/>
-      <c r="EB6" s="98"/>
-      <c r="EC6" s="98"/>
-      <c r="ED6" s="98"/>
-      <c r="EE6" s="98"/>
-      <c r="EF6" s="98"/>
-      <c r="EG6" s="98"/>
-      <c r="EH6" s="98"/>
-      <c r="EI6" s="98"/>
-      <c r="EJ6" s="98"/>
-      <c r="EK6" s="98"/>
-      <c r="EL6" s="98"/>
-      <c r="EM6" s="98"/>
-      <c r="EN6" s="98"/>
-      <c r="EO6" s="98"/>
-      <c r="EP6" s="98"/>
-      <c r="EQ6" s="98"/>
-      <c r="ER6" s="98"/>
-      <c r="ES6" s="98"/>
-      <c r="ET6" s="98"/>
-      <c r="EU6" s="98"/>
-      <c r="EV6" s="98"/>
-      <c r="EW6" s="98"/>
-      <c r="EX6" s="98"/>
-      <c r="EY6" s="98"/>
-      <c r="EZ6" s="98"/>
-      <c r="FA6" s="98"/>
-      <c r="FB6" s="98"/>
-      <c r="FC6" s="98"/>
-      <c r="FD6" s="98"/>
-      <c r="FE6" s="98"/>
-      <c r="FF6" s="98"/>
-      <c r="FG6" s="98"/>
-      <c r="FH6" s="98"/>
-      <c r="FI6" s="98"/>
-      <c r="FJ6" s="98"/>
-      <c r="FK6" s="98"/>
-      <c r="FL6" s="98"/>
-      <c r="FM6" s="98"/>
-      <c r="FN6" s="98"/>
-      <c r="FO6" s="98"/>
-      <c r="FP6" s="98"/>
-      <c r="FQ6" s="98"/>
-      <c r="FR6" s="98"/>
-      <c r="FS6" s="98"/>
-      <c r="FT6" s="98"/>
-      <c r="FU6" s="98"/>
-      <c r="FV6" s="98"/>
-      <c r="FW6" s="98"/>
-      <c r="FX6" s="98"/>
-      <c r="FY6" s="98"/>
-      <c r="FZ6" s="98"/>
-      <c r="GA6" s="98"/>
-      <c r="GB6" s="98"/>
-      <c r="GC6" s="98"/>
-      <c r="GD6" s="98"/>
-      <c r="GE6" s="98"/>
-      <c r="GF6" s="98"/>
-      <c r="GG6" s="98"/>
-      <c r="GH6" s="98"/>
-      <c r="GI6" s="98"/>
-      <c r="GJ6" s="98"/>
-      <c r="GK6" s="98"/>
-      <c r="GL6" s="98"/>
-      <c r="GM6" s="98"/>
-      <c r="GN6" s="98"/>
-      <c r="GO6" s="98"/>
-      <c r="GP6" s="98"/>
-      <c r="GQ6" s="98"/>
-      <c r="GR6" s="98"/>
-      <c r="GS6" s="98"/>
-      <c r="GT6" s="98"/>
-      <c r="GU6" s="98"/>
-      <c r="GV6" s="98"/>
-      <c r="GW6" s="98"/>
-      <c r="GX6" s="98"/>
-      <c r="GY6" s="98"/>
-      <c r="GZ6" s="98"/>
-      <c r="HA6" s="98"/>
-      <c r="HB6" s="98"/>
-      <c r="HC6" s="98"/>
+      <c r="DQ6" s="98">
+        <v>0</v>
+      </c>
+      <c r="DR6" s="98">
+        <v>0</v>
+      </c>
+      <c r="DS6" s="98">
+        <v>0</v>
+      </c>
+      <c r="DT6" s="98">
+        <v>0</v>
+      </c>
+      <c r="DU6" s="98">
+        <v>0</v>
+      </c>
+      <c r="DV6" s="98">
+        <v>0</v>
+      </c>
+      <c r="DW6" s="98">
+        <v>0</v>
+      </c>
+      <c r="DX6" s="98">
+        <v>0</v>
+      </c>
+      <c r="DY6" s="98">
+        <v>0</v>
+      </c>
+      <c r="DZ6" s="98">
+        <v>0</v>
+      </c>
+      <c r="EA6" s="98">
+        <v>0</v>
+      </c>
+      <c r="EB6" s="98">
+        <v>0</v>
+      </c>
+      <c r="EC6" s="98">
+        <v>0</v>
+      </c>
+      <c r="ED6" s="98">
+        <v>0</v>
+      </c>
+      <c r="EE6" s="98">
+        <v>0</v>
+      </c>
+      <c r="EF6" s="98">
+        <v>0</v>
+      </c>
+      <c r="EG6" s="98">
+        <v>0</v>
+      </c>
+      <c r="EH6" s="98">
+        <v>0</v>
+      </c>
+      <c r="EI6" s="98">
+        <v>0</v>
+      </c>
+      <c r="EJ6" s="98">
+        <v>0</v>
+      </c>
+      <c r="EK6" s="98">
+        <v>0</v>
+      </c>
+      <c r="EL6" s="98">
+        <v>0</v>
+      </c>
+      <c r="EM6" s="98">
+        <v>0</v>
+      </c>
+      <c r="EN6" s="98">
+        <v>0</v>
+      </c>
+      <c r="EO6" s="98">
+        <v>0</v>
+      </c>
+      <c r="EP6" s="98">
+        <v>0</v>
+      </c>
+      <c r="EQ6" s="98">
+        <v>0</v>
+      </c>
+      <c r="ER6" s="98">
+        <v>0</v>
+      </c>
+      <c r="ES6" s="98">
+        <v>0</v>
+      </c>
+      <c r="ET6" s="98">
+        <v>0</v>
+      </c>
+      <c r="EU6" s="98">
+        <v>0</v>
+      </c>
+      <c r="EV6" s="98">
+        <v>0</v>
+      </c>
+      <c r="EW6" s="98">
+        <v>0</v>
+      </c>
+      <c r="EX6" s="98">
+        <v>0</v>
+      </c>
+      <c r="EY6" s="98">
+        <v>0</v>
+      </c>
+      <c r="EZ6" s="98">
+        <v>0</v>
+      </c>
+      <c r="FA6" s="98">
+        <v>0</v>
+      </c>
+      <c r="FB6" s="98">
+        <v>0</v>
+      </c>
+      <c r="FC6" s="98">
+        <v>0</v>
+      </c>
+      <c r="FD6" s="98">
+        <v>0</v>
+      </c>
+      <c r="FE6" s="98">
+        <v>0</v>
+      </c>
+      <c r="FF6" s="98">
+        <v>0</v>
+      </c>
+      <c r="FG6" s="98">
+        <v>0</v>
+      </c>
+      <c r="FH6" s="98">
+        <v>0</v>
+      </c>
+      <c r="FI6" s="98">
+        <v>0</v>
+      </c>
+      <c r="FJ6" s="98">
+        <v>0</v>
+      </c>
+      <c r="FK6" s="98">
+        <v>0</v>
+      </c>
+      <c r="FL6" s="98">
+        <v>0</v>
+      </c>
+      <c r="FM6" s="98">
+        <v>0</v>
+      </c>
+      <c r="FN6" s="98">
+        <v>0</v>
+      </c>
+      <c r="FO6" s="98">
+        <v>0</v>
+      </c>
+      <c r="FP6" s="98">
+        <v>0</v>
+      </c>
+      <c r="FQ6" s="98">
+        <v>0</v>
+      </c>
+      <c r="FR6" s="98">
+        <v>0</v>
+      </c>
+      <c r="FS6" s="98">
+        <v>0</v>
+      </c>
+      <c r="FT6" s="98">
+        <v>0</v>
+      </c>
+      <c r="FU6" s="98">
+        <v>0</v>
+      </c>
+      <c r="FV6" s="98">
+        <v>0</v>
+      </c>
+      <c r="FW6" s="98">
+        <v>0</v>
+      </c>
+      <c r="FX6" s="98">
+        <v>0</v>
+      </c>
+      <c r="FY6" s="98">
+        <v>0</v>
+      </c>
+      <c r="FZ6" s="98">
+        <v>0</v>
+      </c>
+      <c r="GA6" s="98">
+        <v>0</v>
+      </c>
+      <c r="GB6" s="98">
+        <v>0</v>
+      </c>
+      <c r="GC6" s="98">
+        <v>0</v>
+      </c>
+      <c r="GD6" s="98">
+        <v>0</v>
+      </c>
+      <c r="GE6" s="98">
+        <v>0</v>
+      </c>
+      <c r="GF6" s="98">
+        <v>0</v>
+      </c>
+      <c r="GG6" s="98">
+        <v>0</v>
+      </c>
+      <c r="GH6" s="98">
+        <v>0</v>
+      </c>
+      <c r="GI6" s="98">
+        <v>0</v>
+      </c>
+      <c r="GJ6" s="98">
+        <v>0</v>
+      </c>
+      <c r="GK6" s="98">
+        <v>0</v>
+      </c>
+      <c r="GL6" s="98">
+        <v>0</v>
+      </c>
+      <c r="GM6" s="98">
+        <v>0</v>
+      </c>
+      <c r="GN6" s="98">
+        <v>0</v>
+      </c>
+      <c r="GO6" s="98">
+        <v>0</v>
+      </c>
+      <c r="GP6" s="98">
+        <v>0</v>
+      </c>
+      <c r="GQ6" s="98">
+        <v>0</v>
+      </c>
+      <c r="GR6" s="98">
+        <v>0</v>
+      </c>
+      <c r="GS6" s="98">
+        <v>0</v>
+      </c>
+      <c r="GT6" s="98">
+        <v>0</v>
+      </c>
+      <c r="GU6" s="98">
+        <v>0</v>
+      </c>
+      <c r="GV6" s="98">
+        <v>0</v>
+      </c>
+      <c r="GW6" s="98">
+        <v>0</v>
+      </c>
+      <c r="GX6" s="98">
+        <v>0</v>
+      </c>
+      <c r="GY6" s="98">
+        <v>0</v>
+      </c>
+      <c r="GZ6" s="98">
+        <v>0</v>
+      </c>
+      <c r="HA6" s="98">
+        <v>0</v>
+      </c>
+      <c r="HB6" s="98">
+        <v>0</v>
+      </c>
+      <c r="HC6" s="98">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:211" s="97" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:211" s="97" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="97" t="s">
         <v>30</v>
       </c>
@@ -8908,99 +9090,281 @@
       <c r="DP7" s="98">
         <v>0</v>
       </c>
-      <c r="DQ7" s="98"/>
-      <c r="DR7" s="98"/>
-      <c r="DS7" s="98"/>
-      <c r="DT7" s="98"/>
-      <c r="DU7" s="98"/>
-      <c r="DV7" s="98"/>
-      <c r="DW7" s="98"/>
-      <c r="DX7" s="98"/>
-      <c r="DY7" s="98"/>
-      <c r="DZ7" s="98"/>
-      <c r="EA7" s="98"/>
-      <c r="EB7" s="98"/>
-      <c r="EC7" s="98"/>
-      <c r="ED7" s="98"/>
-      <c r="EE7" s="98"/>
-      <c r="EF7" s="98"/>
-      <c r="EG7" s="98"/>
-      <c r="EH7" s="98"/>
-      <c r="EI7" s="98"/>
-      <c r="EJ7" s="98"/>
-      <c r="EK7" s="98"/>
-      <c r="EL7" s="98"/>
-      <c r="EM7" s="98"/>
-      <c r="EN7" s="98"/>
-      <c r="EO7" s="98"/>
-      <c r="EP7" s="98"/>
-      <c r="EQ7" s="98"/>
-      <c r="ER7" s="98"/>
-      <c r="ES7" s="98"/>
-      <c r="ET7" s="98"/>
-      <c r="EU7" s="98"/>
-      <c r="EV7" s="98"/>
-      <c r="EW7" s="98"/>
-      <c r="EX7" s="98"/>
-      <c r="EY7" s="98"/>
-      <c r="EZ7" s="98"/>
-      <c r="FA7" s="98"/>
-      <c r="FB7" s="98"/>
-      <c r="FC7" s="98"/>
-      <c r="FD7" s="98"/>
-      <c r="FE7" s="98"/>
-      <c r="FF7" s="98"/>
-      <c r="FG7" s="98"/>
-      <c r="FH7" s="98"/>
-      <c r="FI7" s="98"/>
-      <c r="FJ7" s="98"/>
-      <c r="FK7" s="98"/>
-      <c r="FL7" s="98"/>
-      <c r="FM7" s="98"/>
-      <c r="FN7" s="98"/>
-      <c r="FO7" s="98"/>
-      <c r="FP7" s="98"/>
-      <c r="FQ7" s="98"/>
-      <c r="FR7" s="98"/>
-      <c r="FS7" s="98"/>
-      <c r="FT7" s="98"/>
-      <c r="FU7" s="98"/>
-      <c r="FV7" s="98"/>
-      <c r="FW7" s="98"/>
-      <c r="FX7" s="98"/>
-      <c r="FY7" s="98"/>
-      <c r="FZ7" s="98"/>
-      <c r="GA7" s="98"/>
-      <c r="GB7" s="98"/>
-      <c r="GC7" s="98"/>
-      <c r="GD7" s="98"/>
-      <c r="GE7" s="98"/>
-      <c r="GF7" s="98"/>
-      <c r="GG7" s="98"/>
-      <c r="GH7" s="98"/>
-      <c r="GI7" s="98"/>
-      <c r="GJ7" s="98"/>
-      <c r="GK7" s="98"/>
-      <c r="GL7" s="98"/>
-      <c r="GM7" s="98"/>
-      <c r="GN7" s="98"/>
-      <c r="GO7" s="98"/>
-      <c r="GP7" s="98"/>
-      <c r="GQ7" s="98"/>
-      <c r="GR7" s="98"/>
-      <c r="GS7" s="98"/>
-      <c r="GT7" s="98"/>
-      <c r="GU7" s="98"/>
-      <c r="GV7" s="98"/>
-      <c r="GW7" s="98"/>
-      <c r="GX7" s="98"/>
-      <c r="GY7" s="98"/>
-      <c r="GZ7" s="98"/>
-      <c r="HA7" s="98"/>
-      <c r="HB7" s="98"/>
-      <c r="HC7" s="98"/>
+      <c r="DQ7" s="98">
+        <v>0</v>
+      </c>
+      <c r="DR7" s="98">
+        <v>0</v>
+      </c>
+      <c r="DS7" s="98">
+        <v>0</v>
+      </c>
+      <c r="DT7" s="98">
+        <v>0</v>
+      </c>
+      <c r="DU7" s="98">
+        <v>0</v>
+      </c>
+      <c r="DV7" s="98">
+        <v>0</v>
+      </c>
+      <c r="DW7" s="98">
+        <v>0</v>
+      </c>
+      <c r="DX7" s="98">
+        <v>0</v>
+      </c>
+      <c r="DY7" s="98">
+        <v>0</v>
+      </c>
+      <c r="DZ7" s="98">
+        <v>0</v>
+      </c>
+      <c r="EA7" s="98">
+        <v>0</v>
+      </c>
+      <c r="EB7" s="98">
+        <v>0</v>
+      </c>
+      <c r="EC7" s="98">
+        <v>0</v>
+      </c>
+      <c r="ED7" s="98">
+        <v>0</v>
+      </c>
+      <c r="EE7" s="98">
+        <v>0</v>
+      </c>
+      <c r="EF7" s="98">
+        <v>0</v>
+      </c>
+      <c r="EG7" s="98">
+        <v>0</v>
+      </c>
+      <c r="EH7" s="98">
+        <v>0</v>
+      </c>
+      <c r="EI7" s="98">
+        <v>0</v>
+      </c>
+      <c r="EJ7" s="98">
+        <v>0</v>
+      </c>
+      <c r="EK7" s="98">
+        <v>0</v>
+      </c>
+      <c r="EL7" s="98">
+        <v>0</v>
+      </c>
+      <c r="EM7" s="98">
+        <v>0</v>
+      </c>
+      <c r="EN7" s="98">
+        <v>0</v>
+      </c>
+      <c r="EO7" s="98">
+        <v>0</v>
+      </c>
+      <c r="EP7" s="98">
+        <v>0</v>
+      </c>
+      <c r="EQ7" s="98">
+        <v>0</v>
+      </c>
+      <c r="ER7" s="98">
+        <v>0</v>
+      </c>
+      <c r="ES7" s="98">
+        <v>0</v>
+      </c>
+      <c r="ET7" s="98">
+        <v>0</v>
+      </c>
+      <c r="EU7" s="98">
+        <v>0</v>
+      </c>
+      <c r="EV7" s="98">
+        <v>0</v>
+      </c>
+      <c r="EW7" s="98">
+        <v>0</v>
+      </c>
+      <c r="EX7" s="98">
+        <v>0</v>
+      </c>
+      <c r="EY7" s="98">
+        <v>0</v>
+      </c>
+      <c r="EZ7" s="98">
+        <v>0</v>
+      </c>
+      <c r="FA7" s="98">
+        <v>0</v>
+      </c>
+      <c r="FB7" s="98">
+        <v>0</v>
+      </c>
+      <c r="FC7" s="98">
+        <v>0</v>
+      </c>
+      <c r="FD7" s="98">
+        <v>0</v>
+      </c>
+      <c r="FE7" s="98">
+        <v>0</v>
+      </c>
+      <c r="FF7" s="98">
+        <v>0</v>
+      </c>
+      <c r="FG7" s="98">
+        <v>0</v>
+      </c>
+      <c r="FH7" s="98">
+        <v>0</v>
+      </c>
+      <c r="FI7" s="98">
+        <v>0</v>
+      </c>
+      <c r="FJ7" s="98">
+        <v>0</v>
+      </c>
+      <c r="FK7" s="98">
+        <v>0</v>
+      </c>
+      <c r="FL7" s="98">
+        <v>0</v>
+      </c>
+      <c r="FM7" s="98">
+        <v>0</v>
+      </c>
+      <c r="FN7" s="98">
+        <v>0</v>
+      </c>
+      <c r="FO7" s="98">
+        <v>0</v>
+      </c>
+      <c r="FP7" s="98">
+        <v>0</v>
+      </c>
+      <c r="FQ7" s="98">
+        <v>0</v>
+      </c>
+      <c r="FR7" s="98">
+        <v>0</v>
+      </c>
+      <c r="FS7" s="98">
+        <v>0</v>
+      </c>
+      <c r="FT7" s="98">
+        <v>0</v>
+      </c>
+      <c r="FU7" s="98">
+        <v>0</v>
+      </c>
+      <c r="FV7" s="98">
+        <v>0</v>
+      </c>
+      <c r="FW7" s="98">
+        <v>0</v>
+      </c>
+      <c r="FX7" s="98">
+        <v>0</v>
+      </c>
+      <c r="FY7" s="98">
+        <v>0</v>
+      </c>
+      <c r="FZ7" s="98">
+        <v>0</v>
+      </c>
+      <c r="GA7" s="98">
+        <v>0</v>
+      </c>
+      <c r="GB7" s="98">
+        <v>0</v>
+      </c>
+      <c r="GC7" s="98">
+        <v>0</v>
+      </c>
+      <c r="GD7" s="98">
+        <v>0</v>
+      </c>
+      <c r="GE7" s="98">
+        <v>0</v>
+      </c>
+      <c r="GF7" s="98">
+        <v>0</v>
+      </c>
+      <c r="GG7" s="98">
+        <v>0</v>
+      </c>
+      <c r="GH7" s="98">
+        <v>0</v>
+      </c>
+      <c r="GI7" s="98">
+        <v>0</v>
+      </c>
+      <c r="GJ7" s="98">
+        <v>0</v>
+      </c>
+      <c r="GK7" s="98">
+        <v>0</v>
+      </c>
+      <c r="GL7" s="98">
+        <v>0</v>
+      </c>
+      <c r="GM7" s="98">
+        <v>0</v>
+      </c>
+      <c r="GN7" s="98">
+        <v>0</v>
+      </c>
+      <c r="GO7" s="98">
+        <v>0</v>
+      </c>
+      <c r="GP7" s="98">
+        <v>0</v>
+      </c>
+      <c r="GQ7" s="98">
+        <v>0</v>
+      </c>
+      <c r="GR7" s="98">
+        <v>0</v>
+      </c>
+      <c r="GS7" s="98">
+        <v>0</v>
+      </c>
+      <c r="GT7" s="98">
+        <v>0</v>
+      </c>
+      <c r="GU7" s="98">
+        <v>0</v>
+      </c>
+      <c r="GV7" s="98">
+        <v>0</v>
+      </c>
+      <c r="GW7" s="98">
+        <v>0</v>
+      </c>
+      <c r="GX7" s="98">
+        <v>0</v>
+      </c>
+      <c r="GY7" s="98">
+        <v>0</v>
+      </c>
+      <c r="GZ7" s="98">
+        <v>0</v>
+      </c>
+      <c r="HA7" s="98">
+        <v>0</v>
+      </c>
+      <c r="HB7" s="98">
+        <v>0</v>
+      </c>
+      <c r="HC7" s="98">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:211" s="97" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:211" s="97" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="97" t="s">
         <v>319</v>
       </c>
@@ -9361,99 +9725,281 @@
       <c r="DP8" s="98">
         <v>0</v>
       </c>
-      <c r="DQ8" s="98"/>
-      <c r="DR8" s="98"/>
-      <c r="DS8" s="98"/>
-      <c r="DT8" s="98"/>
-      <c r="DU8" s="98"/>
-      <c r="DV8" s="98"/>
-      <c r="DW8" s="98"/>
-      <c r="DX8" s="98"/>
-      <c r="DY8" s="98"/>
-      <c r="DZ8" s="98"/>
-      <c r="EA8" s="98"/>
-      <c r="EB8" s="98"/>
-      <c r="EC8" s="98"/>
-      <c r="ED8" s="98"/>
-      <c r="EE8" s="98"/>
-      <c r="EF8" s="98"/>
-      <c r="EG8" s="98"/>
-      <c r="EH8" s="98"/>
-      <c r="EI8" s="98"/>
-      <c r="EJ8" s="98"/>
-      <c r="EK8" s="98"/>
-      <c r="EL8" s="98"/>
-      <c r="EM8" s="98"/>
-      <c r="EN8" s="98"/>
-      <c r="EO8" s="98"/>
-      <c r="EP8" s="98"/>
-      <c r="EQ8" s="98"/>
-      <c r="ER8" s="98"/>
-      <c r="ES8" s="98"/>
-      <c r="ET8" s="98"/>
-      <c r="EU8" s="98"/>
-      <c r="EV8" s="98"/>
-      <c r="EW8" s="98"/>
-      <c r="EX8" s="98"/>
-      <c r="EY8" s="98"/>
-      <c r="EZ8" s="98"/>
-      <c r="FA8" s="98"/>
-      <c r="FB8" s="98"/>
-      <c r="FC8" s="98"/>
-      <c r="FD8" s="98"/>
-      <c r="FE8" s="98"/>
-      <c r="FF8" s="98"/>
-      <c r="FG8" s="98"/>
-      <c r="FH8" s="98"/>
-      <c r="FI8" s="98"/>
-      <c r="FJ8" s="98"/>
-      <c r="FK8" s="98"/>
-      <c r="FL8" s="98"/>
-      <c r="FM8" s="98"/>
-      <c r="FN8" s="98"/>
-      <c r="FO8" s="98"/>
-      <c r="FP8" s="98"/>
-      <c r="FQ8" s="98"/>
-      <c r="FR8" s="98"/>
-      <c r="FS8" s="98"/>
-      <c r="FT8" s="98"/>
-      <c r="FU8" s="98"/>
-      <c r="FV8" s="98"/>
-      <c r="FW8" s="98"/>
-      <c r="FX8" s="98"/>
-      <c r="FY8" s="98"/>
-      <c r="FZ8" s="98"/>
-      <c r="GA8" s="98"/>
-      <c r="GB8" s="98"/>
-      <c r="GC8" s="98"/>
-      <c r="GD8" s="98"/>
-      <c r="GE8" s="98"/>
-      <c r="GF8" s="98"/>
-      <c r="GG8" s="98"/>
-      <c r="GH8" s="98"/>
-      <c r="GI8" s="98"/>
-      <c r="GJ8" s="98"/>
-      <c r="GK8" s="98"/>
-      <c r="GL8" s="98"/>
-      <c r="GM8" s="98"/>
-      <c r="GN8" s="98"/>
-      <c r="GO8" s="98"/>
-      <c r="GP8" s="98"/>
-      <c r="GQ8" s="98"/>
-      <c r="GR8" s="98"/>
-      <c r="GS8" s="98"/>
-      <c r="GT8" s="98"/>
-      <c r="GU8" s="98"/>
-      <c r="GV8" s="98"/>
-      <c r="GW8" s="98"/>
-      <c r="GX8" s="98"/>
-      <c r="GY8" s="98"/>
-      <c r="GZ8" s="98"/>
-      <c r="HA8" s="98"/>
-      <c r="HB8" s="98"/>
-      <c r="HC8" s="98"/>
+      <c r="DQ8" s="98">
+        <v>0</v>
+      </c>
+      <c r="DR8" s="98">
+        <v>0</v>
+      </c>
+      <c r="DS8" s="98">
+        <v>0</v>
+      </c>
+      <c r="DT8" s="98">
+        <v>0</v>
+      </c>
+      <c r="DU8" s="98">
+        <v>0</v>
+      </c>
+      <c r="DV8" s="98">
+        <v>0</v>
+      </c>
+      <c r="DW8" s="98">
+        <v>0</v>
+      </c>
+      <c r="DX8" s="98">
+        <v>0</v>
+      </c>
+      <c r="DY8" s="98">
+        <v>0</v>
+      </c>
+      <c r="DZ8" s="98">
+        <v>0</v>
+      </c>
+      <c r="EA8" s="98">
+        <v>0</v>
+      </c>
+      <c r="EB8" s="98">
+        <v>0</v>
+      </c>
+      <c r="EC8" s="98">
+        <v>0</v>
+      </c>
+      <c r="ED8" s="98">
+        <v>0</v>
+      </c>
+      <c r="EE8" s="98">
+        <v>0</v>
+      </c>
+      <c r="EF8" s="98">
+        <v>0</v>
+      </c>
+      <c r="EG8" s="98">
+        <v>0</v>
+      </c>
+      <c r="EH8" s="98">
+        <v>0</v>
+      </c>
+      <c r="EI8" s="98">
+        <v>0</v>
+      </c>
+      <c r="EJ8" s="98">
+        <v>0</v>
+      </c>
+      <c r="EK8" s="98">
+        <v>0</v>
+      </c>
+      <c r="EL8" s="98">
+        <v>0</v>
+      </c>
+      <c r="EM8" s="98">
+        <v>0</v>
+      </c>
+      <c r="EN8" s="98">
+        <v>0</v>
+      </c>
+      <c r="EO8" s="98">
+        <v>0</v>
+      </c>
+      <c r="EP8" s="98">
+        <v>0</v>
+      </c>
+      <c r="EQ8" s="98">
+        <v>0</v>
+      </c>
+      <c r="ER8" s="98">
+        <v>0</v>
+      </c>
+      <c r="ES8" s="98">
+        <v>0</v>
+      </c>
+      <c r="ET8" s="98">
+        <v>0</v>
+      </c>
+      <c r="EU8" s="98">
+        <v>0</v>
+      </c>
+      <c r="EV8" s="98">
+        <v>0</v>
+      </c>
+      <c r="EW8" s="98">
+        <v>0</v>
+      </c>
+      <c r="EX8" s="98">
+        <v>0</v>
+      </c>
+      <c r="EY8" s="98">
+        <v>0</v>
+      </c>
+      <c r="EZ8" s="98">
+        <v>0</v>
+      </c>
+      <c r="FA8" s="98">
+        <v>0</v>
+      </c>
+      <c r="FB8" s="98">
+        <v>0</v>
+      </c>
+      <c r="FC8" s="98">
+        <v>0</v>
+      </c>
+      <c r="FD8" s="98">
+        <v>0</v>
+      </c>
+      <c r="FE8" s="98">
+        <v>0</v>
+      </c>
+      <c r="FF8" s="98">
+        <v>0</v>
+      </c>
+      <c r="FG8" s="98">
+        <v>0</v>
+      </c>
+      <c r="FH8" s="98">
+        <v>0</v>
+      </c>
+      <c r="FI8" s="98">
+        <v>0</v>
+      </c>
+      <c r="FJ8" s="98">
+        <v>0</v>
+      </c>
+      <c r="FK8" s="98">
+        <v>0</v>
+      </c>
+      <c r="FL8" s="98">
+        <v>0</v>
+      </c>
+      <c r="FM8" s="98">
+        <v>0</v>
+      </c>
+      <c r="FN8" s="98">
+        <v>0</v>
+      </c>
+      <c r="FO8" s="98">
+        <v>0</v>
+      </c>
+      <c r="FP8" s="98">
+        <v>0</v>
+      </c>
+      <c r="FQ8" s="98">
+        <v>0</v>
+      </c>
+      <c r="FR8" s="98">
+        <v>0</v>
+      </c>
+      <c r="FS8" s="98">
+        <v>0</v>
+      </c>
+      <c r="FT8" s="98">
+        <v>0</v>
+      </c>
+      <c r="FU8" s="98">
+        <v>0</v>
+      </c>
+      <c r="FV8" s="98">
+        <v>0</v>
+      </c>
+      <c r="FW8" s="98">
+        <v>0</v>
+      </c>
+      <c r="FX8" s="98">
+        <v>0</v>
+      </c>
+      <c r="FY8" s="98">
+        <v>0</v>
+      </c>
+      <c r="FZ8" s="98">
+        <v>0</v>
+      </c>
+      <c r="GA8" s="98">
+        <v>0</v>
+      </c>
+      <c r="GB8" s="98">
+        <v>0</v>
+      </c>
+      <c r="GC8" s="98">
+        <v>0</v>
+      </c>
+      <c r="GD8" s="98">
+        <v>0</v>
+      </c>
+      <c r="GE8" s="98">
+        <v>0</v>
+      </c>
+      <c r="GF8" s="98">
+        <v>0</v>
+      </c>
+      <c r="GG8" s="98">
+        <v>0</v>
+      </c>
+      <c r="GH8" s="98">
+        <v>0</v>
+      </c>
+      <c r="GI8" s="98">
+        <v>0</v>
+      </c>
+      <c r="GJ8" s="98">
+        <v>0</v>
+      </c>
+      <c r="GK8" s="98">
+        <v>0</v>
+      </c>
+      <c r="GL8" s="98">
+        <v>0</v>
+      </c>
+      <c r="GM8" s="98">
+        <v>0</v>
+      </c>
+      <c r="GN8" s="98">
+        <v>0</v>
+      </c>
+      <c r="GO8" s="98">
+        <v>0</v>
+      </c>
+      <c r="GP8" s="98">
+        <v>0</v>
+      </c>
+      <c r="GQ8" s="98">
+        <v>0</v>
+      </c>
+      <c r="GR8" s="98">
+        <v>0</v>
+      </c>
+      <c r="GS8" s="98">
+        <v>0</v>
+      </c>
+      <c r="GT8" s="98">
+        <v>0</v>
+      </c>
+      <c r="GU8" s="98">
+        <v>0</v>
+      </c>
+      <c r="GV8" s="98">
+        <v>0</v>
+      </c>
+      <c r="GW8" s="98">
+        <v>0</v>
+      </c>
+      <c r="GX8" s="98">
+        <v>0</v>
+      </c>
+      <c r="GY8" s="98">
+        <v>0</v>
+      </c>
+      <c r="GZ8" s="98">
+        <v>0</v>
+      </c>
+      <c r="HA8" s="98">
+        <v>0</v>
+      </c>
+      <c r="HB8" s="98">
+        <v>0</v>
+      </c>
+      <c r="HC8" s="98">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:211" s="97" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:211" s="97" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="97" t="s">
         <v>33</v>
       </c>
@@ -9814,99 +10360,281 @@
       <c r="DP9" s="98">
         <v>0</v>
       </c>
-      <c r="DQ9" s="98"/>
-      <c r="DR9" s="98"/>
-      <c r="DS9" s="98"/>
-      <c r="DT9" s="98"/>
-      <c r="DU9" s="98"/>
-      <c r="DV9" s="98"/>
-      <c r="DW9" s="98"/>
-      <c r="DX9" s="98"/>
-      <c r="DY9" s="98"/>
-      <c r="DZ9" s="98"/>
-      <c r="EA9" s="98"/>
-      <c r="EB9" s="98"/>
-      <c r="EC9" s="98"/>
-      <c r="ED9" s="98"/>
-      <c r="EE9" s="98"/>
-      <c r="EF9" s="98"/>
-      <c r="EG9" s="98"/>
-      <c r="EH9" s="98"/>
-      <c r="EI9" s="98"/>
-      <c r="EJ9" s="98"/>
-      <c r="EK9" s="98"/>
-      <c r="EL9" s="98"/>
-      <c r="EM9" s="98"/>
-      <c r="EN9" s="98"/>
-      <c r="EO9" s="98"/>
-      <c r="EP9" s="98"/>
-      <c r="EQ9" s="98"/>
-      <c r="ER9" s="98"/>
-      <c r="ES9" s="98"/>
-      <c r="ET9" s="98"/>
-      <c r="EU9" s="98"/>
-      <c r="EV9" s="98"/>
-      <c r="EW9" s="98"/>
-      <c r="EX9" s="98"/>
-      <c r="EY9" s="98"/>
-      <c r="EZ9" s="98"/>
-      <c r="FA9" s="98"/>
-      <c r="FB9" s="98"/>
-      <c r="FC9" s="98"/>
-      <c r="FD9" s="98"/>
-      <c r="FE9" s="98"/>
-      <c r="FF9" s="98"/>
-      <c r="FG9" s="98"/>
-      <c r="FH9" s="98"/>
-      <c r="FI9" s="98"/>
-      <c r="FJ9" s="98"/>
-      <c r="FK9" s="98"/>
-      <c r="FL9" s="98"/>
-      <c r="FM9" s="98"/>
-      <c r="FN9" s="98"/>
-      <c r="FO9" s="98"/>
-      <c r="FP9" s="98"/>
-      <c r="FQ9" s="98"/>
-      <c r="FR9" s="98"/>
-      <c r="FS9" s="98"/>
-      <c r="FT9" s="98"/>
-      <c r="FU9" s="98"/>
-      <c r="FV9" s="98"/>
-      <c r="FW9" s="98"/>
-      <c r="FX9" s="98"/>
-      <c r="FY9" s="98"/>
-      <c r="FZ9" s="98"/>
-      <c r="GA9" s="98"/>
-      <c r="GB9" s="98"/>
-      <c r="GC9" s="98"/>
-      <c r="GD9" s="98"/>
-      <c r="GE9" s="98"/>
-      <c r="GF9" s="98"/>
-      <c r="GG9" s="98"/>
-      <c r="GH9" s="98"/>
-      <c r="GI9" s="98"/>
-      <c r="GJ9" s="98"/>
-      <c r="GK9" s="98"/>
-      <c r="GL9" s="98"/>
-      <c r="GM9" s="98"/>
-      <c r="GN9" s="98"/>
-      <c r="GO9" s="98"/>
-      <c r="GP9" s="98"/>
-      <c r="GQ9" s="98"/>
-      <c r="GR9" s="98"/>
-      <c r="GS9" s="98"/>
-      <c r="GT9" s="98"/>
-      <c r="GU9" s="98"/>
-      <c r="GV9" s="98"/>
-      <c r="GW9" s="98"/>
-      <c r="GX9" s="98"/>
-      <c r="GY9" s="98"/>
-      <c r="GZ9" s="98"/>
-      <c r="HA9" s="98"/>
-      <c r="HB9" s="98"/>
-      <c r="HC9" s="98"/>
+      <c r="DQ9" s="98">
+        <v>0</v>
+      </c>
+      <c r="DR9" s="98">
+        <v>0</v>
+      </c>
+      <c r="DS9" s="98">
+        <v>0</v>
+      </c>
+      <c r="DT9" s="98">
+        <v>0</v>
+      </c>
+      <c r="DU9" s="98">
+        <v>0</v>
+      </c>
+      <c r="DV9" s="98">
+        <v>0</v>
+      </c>
+      <c r="DW9" s="98">
+        <v>0</v>
+      </c>
+      <c r="DX9" s="98">
+        <v>0</v>
+      </c>
+      <c r="DY9" s="98">
+        <v>0</v>
+      </c>
+      <c r="DZ9" s="98">
+        <v>0</v>
+      </c>
+      <c r="EA9" s="98">
+        <v>0</v>
+      </c>
+      <c r="EB9" s="98">
+        <v>0</v>
+      </c>
+      <c r="EC9" s="98">
+        <v>0</v>
+      </c>
+      <c r="ED9" s="98">
+        <v>0</v>
+      </c>
+      <c r="EE9" s="98">
+        <v>0</v>
+      </c>
+      <c r="EF9" s="98">
+        <v>0</v>
+      </c>
+      <c r="EG9" s="98">
+        <v>0</v>
+      </c>
+      <c r="EH9" s="98">
+        <v>0</v>
+      </c>
+      <c r="EI9" s="98">
+        <v>0</v>
+      </c>
+      <c r="EJ9" s="98">
+        <v>0</v>
+      </c>
+      <c r="EK9" s="98">
+        <v>0</v>
+      </c>
+      <c r="EL9" s="98">
+        <v>0</v>
+      </c>
+      <c r="EM9" s="98">
+        <v>0</v>
+      </c>
+      <c r="EN9" s="98">
+        <v>0</v>
+      </c>
+      <c r="EO9" s="98">
+        <v>0</v>
+      </c>
+      <c r="EP9" s="98">
+        <v>0</v>
+      </c>
+      <c r="EQ9" s="98">
+        <v>0</v>
+      </c>
+      <c r="ER9" s="98">
+        <v>0</v>
+      </c>
+      <c r="ES9" s="98">
+        <v>0</v>
+      </c>
+      <c r="ET9" s="98">
+        <v>0</v>
+      </c>
+      <c r="EU9" s="98">
+        <v>0</v>
+      </c>
+      <c r="EV9" s="98">
+        <v>0</v>
+      </c>
+      <c r="EW9" s="98">
+        <v>0</v>
+      </c>
+      <c r="EX9" s="98">
+        <v>0</v>
+      </c>
+      <c r="EY9" s="98">
+        <v>0</v>
+      </c>
+      <c r="EZ9" s="98">
+        <v>0</v>
+      </c>
+      <c r="FA9" s="98">
+        <v>0</v>
+      </c>
+      <c r="FB9" s="98">
+        <v>0</v>
+      </c>
+      <c r="FC9" s="98">
+        <v>0</v>
+      </c>
+      <c r="FD9" s="98">
+        <v>0</v>
+      </c>
+      <c r="FE9" s="98">
+        <v>0</v>
+      </c>
+      <c r="FF9" s="98">
+        <v>0</v>
+      </c>
+      <c r="FG9" s="98">
+        <v>0</v>
+      </c>
+      <c r="FH9" s="98">
+        <v>0</v>
+      </c>
+      <c r="FI9" s="98">
+        <v>0</v>
+      </c>
+      <c r="FJ9" s="98">
+        <v>0</v>
+      </c>
+      <c r="FK9" s="98">
+        <v>0</v>
+      </c>
+      <c r="FL9" s="98">
+        <v>0</v>
+      </c>
+      <c r="FM9" s="98">
+        <v>0</v>
+      </c>
+      <c r="FN9" s="98">
+        <v>0</v>
+      </c>
+      <c r="FO9" s="98">
+        <v>0</v>
+      </c>
+      <c r="FP9" s="98">
+        <v>0</v>
+      </c>
+      <c r="FQ9" s="98">
+        <v>0</v>
+      </c>
+      <c r="FR9" s="98">
+        <v>0</v>
+      </c>
+      <c r="FS9" s="98">
+        <v>0</v>
+      </c>
+      <c r="FT9" s="98">
+        <v>0</v>
+      </c>
+      <c r="FU9" s="98">
+        <v>0</v>
+      </c>
+      <c r="FV9" s="98">
+        <v>0</v>
+      </c>
+      <c r="FW9" s="98">
+        <v>0</v>
+      </c>
+      <c r="FX9" s="98">
+        <v>0</v>
+      </c>
+      <c r="FY9" s="98">
+        <v>0</v>
+      </c>
+      <c r="FZ9" s="98">
+        <v>0</v>
+      </c>
+      <c r="GA9" s="98">
+        <v>0</v>
+      </c>
+      <c r="GB9" s="98">
+        <v>0</v>
+      </c>
+      <c r="GC9" s="98">
+        <v>0</v>
+      </c>
+      <c r="GD9" s="98">
+        <v>0</v>
+      </c>
+      <c r="GE9" s="98">
+        <v>0</v>
+      </c>
+      <c r="GF9" s="98">
+        <v>0</v>
+      </c>
+      <c r="GG9" s="98">
+        <v>0</v>
+      </c>
+      <c r="GH9" s="98">
+        <v>0</v>
+      </c>
+      <c r="GI9" s="98">
+        <v>0</v>
+      </c>
+      <c r="GJ9" s="98">
+        <v>0</v>
+      </c>
+      <c r="GK9" s="98">
+        <v>0</v>
+      </c>
+      <c r="GL9" s="98">
+        <v>0</v>
+      </c>
+      <c r="GM9" s="98">
+        <v>0</v>
+      </c>
+      <c r="GN9" s="98">
+        <v>0</v>
+      </c>
+      <c r="GO9" s="98">
+        <v>0</v>
+      </c>
+      <c r="GP9" s="98">
+        <v>0</v>
+      </c>
+      <c r="GQ9" s="98">
+        <v>0</v>
+      </c>
+      <c r="GR9" s="98">
+        <v>0</v>
+      </c>
+      <c r="GS9" s="98">
+        <v>0</v>
+      </c>
+      <c r="GT9" s="98">
+        <v>0</v>
+      </c>
+      <c r="GU9" s="98">
+        <v>0</v>
+      </c>
+      <c r="GV9" s="98">
+        <v>0</v>
+      </c>
+      <c r="GW9" s="98">
+        <v>0</v>
+      </c>
+      <c r="GX9" s="98">
+        <v>0</v>
+      </c>
+      <c r="GY9" s="98">
+        <v>0</v>
+      </c>
+      <c r="GZ9" s="98">
+        <v>0</v>
+      </c>
+      <c r="HA9" s="98">
+        <v>0</v>
+      </c>
+      <c r="HB9" s="98">
+        <v>0</v>
+      </c>
+      <c r="HC9" s="98">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:211" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:211" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -10542,7 +11270,7 @@
         <v>10729999.999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:211" s="97" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:211" s="97" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="97" t="s">
         <v>35</v>
       </c>
@@ -10903,99 +11631,281 @@
       <c r="DP11" s="98">
         <v>0</v>
       </c>
-      <c r="DQ11" s="98"/>
-      <c r="DR11" s="98"/>
-      <c r="DS11" s="98"/>
-      <c r="DT11" s="98"/>
-      <c r="DU11" s="98"/>
-      <c r="DV11" s="98"/>
-      <c r="DW11" s="98"/>
-      <c r="DX11" s="98"/>
-      <c r="DY11" s="98"/>
-      <c r="DZ11" s="98"/>
-      <c r="EA11" s="98"/>
-      <c r="EB11" s="98"/>
-      <c r="EC11" s="98"/>
-      <c r="ED11" s="98"/>
-      <c r="EE11" s="98"/>
-      <c r="EF11" s="98"/>
-      <c r="EG11" s="98"/>
-      <c r="EH11" s="98"/>
-      <c r="EI11" s="98"/>
-      <c r="EJ11" s="98"/>
-      <c r="EK11" s="98"/>
-      <c r="EL11" s="98"/>
-      <c r="EM11" s="98"/>
-      <c r="EN11" s="98"/>
-      <c r="EO11" s="98"/>
-      <c r="EP11" s="98"/>
-      <c r="EQ11" s="98"/>
-      <c r="ER11" s="98"/>
-      <c r="ES11" s="98"/>
-      <c r="ET11" s="98"/>
-      <c r="EU11" s="98"/>
-      <c r="EV11" s="98"/>
-      <c r="EW11" s="98"/>
-      <c r="EX11" s="98"/>
-      <c r="EY11" s="98"/>
-      <c r="EZ11" s="98"/>
-      <c r="FA11" s="98"/>
-      <c r="FB11" s="98"/>
-      <c r="FC11" s="98"/>
-      <c r="FD11" s="98"/>
-      <c r="FE11" s="98"/>
-      <c r="FF11" s="98"/>
-      <c r="FG11" s="98"/>
-      <c r="FH11" s="98"/>
-      <c r="FI11" s="98"/>
-      <c r="FJ11" s="98"/>
-      <c r="FK11" s="98"/>
-      <c r="FL11" s="98"/>
-      <c r="FM11" s="98"/>
-      <c r="FN11" s="98"/>
-      <c r="FO11" s="98"/>
-      <c r="FP11" s="98"/>
-      <c r="FQ11" s="98"/>
-      <c r="FR11" s="98"/>
-      <c r="FS11" s="98"/>
-      <c r="FT11" s="98"/>
-      <c r="FU11" s="98"/>
-      <c r="FV11" s="98"/>
-      <c r="FW11" s="98"/>
-      <c r="FX11" s="98"/>
-      <c r="FY11" s="98"/>
-      <c r="FZ11" s="98"/>
-      <c r="GA11" s="98"/>
-      <c r="GB11" s="98"/>
-      <c r="GC11" s="98"/>
-      <c r="GD11" s="98"/>
-      <c r="GE11" s="98"/>
-      <c r="GF11" s="98"/>
-      <c r="GG11" s="98"/>
-      <c r="GH11" s="98"/>
-      <c r="GI11" s="98"/>
-      <c r="GJ11" s="98"/>
-      <c r="GK11" s="98"/>
-      <c r="GL11" s="98"/>
-      <c r="GM11" s="98"/>
-      <c r="GN11" s="98"/>
-      <c r="GO11" s="98"/>
-      <c r="GP11" s="98"/>
-      <c r="GQ11" s="98"/>
-      <c r="GR11" s="98"/>
-      <c r="GS11" s="98"/>
-      <c r="GT11" s="98"/>
-      <c r="GU11" s="98"/>
-      <c r="GV11" s="98"/>
-      <c r="GW11" s="98"/>
-      <c r="GX11" s="98"/>
-      <c r="GY11" s="98"/>
-      <c r="GZ11" s="98"/>
-      <c r="HA11" s="98"/>
-      <c r="HB11" s="98"/>
-      <c r="HC11" s="98"/>
+      <c r="DQ11" s="98">
+        <v>0</v>
+      </c>
+      <c r="DR11" s="98">
+        <v>0</v>
+      </c>
+      <c r="DS11" s="98">
+        <v>0</v>
+      </c>
+      <c r="DT11" s="98">
+        <v>0</v>
+      </c>
+      <c r="DU11" s="98">
+        <v>0</v>
+      </c>
+      <c r="DV11" s="98">
+        <v>0</v>
+      </c>
+      <c r="DW11" s="98">
+        <v>0</v>
+      </c>
+      <c r="DX11" s="98">
+        <v>0</v>
+      </c>
+      <c r="DY11" s="98">
+        <v>0</v>
+      </c>
+      <c r="DZ11" s="98">
+        <v>0</v>
+      </c>
+      <c r="EA11" s="98">
+        <v>0</v>
+      </c>
+      <c r="EB11" s="98">
+        <v>0</v>
+      </c>
+      <c r="EC11" s="98">
+        <v>0</v>
+      </c>
+      <c r="ED11" s="98">
+        <v>0</v>
+      </c>
+      <c r="EE11" s="98">
+        <v>0</v>
+      </c>
+      <c r="EF11" s="98">
+        <v>0</v>
+      </c>
+      <c r="EG11" s="98">
+        <v>0</v>
+      </c>
+      <c r="EH11" s="98">
+        <v>0</v>
+      </c>
+      <c r="EI11" s="98">
+        <v>0</v>
+      </c>
+      <c r="EJ11" s="98">
+        <v>0</v>
+      </c>
+      <c r="EK11" s="98">
+        <v>0</v>
+      </c>
+      <c r="EL11" s="98">
+        <v>0</v>
+      </c>
+      <c r="EM11" s="98">
+        <v>0</v>
+      </c>
+      <c r="EN11" s="98">
+        <v>0</v>
+      </c>
+      <c r="EO11" s="98">
+        <v>0</v>
+      </c>
+      <c r="EP11" s="98">
+        <v>0</v>
+      </c>
+      <c r="EQ11" s="98">
+        <v>0</v>
+      </c>
+      <c r="ER11" s="98">
+        <v>0</v>
+      </c>
+      <c r="ES11" s="98">
+        <v>0</v>
+      </c>
+      <c r="ET11" s="98">
+        <v>0</v>
+      </c>
+      <c r="EU11" s="98">
+        <v>0</v>
+      </c>
+      <c r="EV11" s="98">
+        <v>0</v>
+      </c>
+      <c r="EW11" s="98">
+        <v>0</v>
+      </c>
+      <c r="EX11" s="98">
+        <v>0</v>
+      </c>
+      <c r="EY11" s="98">
+        <v>0</v>
+      </c>
+      <c r="EZ11" s="98">
+        <v>0</v>
+      </c>
+      <c r="FA11" s="98">
+        <v>0</v>
+      </c>
+      <c r="FB11" s="98">
+        <v>0</v>
+      </c>
+      <c r="FC11" s="98">
+        <v>0</v>
+      </c>
+      <c r="FD11" s="98">
+        <v>0</v>
+      </c>
+      <c r="FE11" s="98">
+        <v>0</v>
+      </c>
+      <c r="FF11" s="98">
+        <v>0</v>
+      </c>
+      <c r="FG11" s="98">
+        <v>0</v>
+      </c>
+      <c r="FH11" s="98">
+        <v>0</v>
+      </c>
+      <c r="FI11" s="98">
+        <v>0</v>
+      </c>
+      <c r="FJ11" s="98">
+        <v>0</v>
+      </c>
+      <c r="FK11" s="98">
+        <v>0</v>
+      </c>
+      <c r="FL11" s="98">
+        <v>0</v>
+      </c>
+      <c r="FM11" s="98">
+        <v>0</v>
+      </c>
+      <c r="FN11" s="98">
+        <v>0</v>
+      </c>
+      <c r="FO11" s="98">
+        <v>0</v>
+      </c>
+      <c r="FP11" s="98">
+        <v>0</v>
+      </c>
+      <c r="FQ11" s="98">
+        <v>0</v>
+      </c>
+      <c r="FR11" s="98">
+        <v>0</v>
+      </c>
+      <c r="FS11" s="98">
+        <v>0</v>
+      </c>
+      <c r="FT11" s="98">
+        <v>0</v>
+      </c>
+      <c r="FU11" s="98">
+        <v>0</v>
+      </c>
+      <c r="FV11" s="98">
+        <v>0</v>
+      </c>
+      <c r="FW11" s="98">
+        <v>0</v>
+      </c>
+      <c r="FX11" s="98">
+        <v>0</v>
+      </c>
+      <c r="FY11" s="98">
+        <v>0</v>
+      </c>
+      <c r="FZ11" s="98">
+        <v>0</v>
+      </c>
+      <c r="GA11" s="98">
+        <v>0</v>
+      </c>
+      <c r="GB11" s="98">
+        <v>0</v>
+      </c>
+      <c r="GC11" s="98">
+        <v>0</v>
+      </c>
+      <c r="GD11" s="98">
+        <v>0</v>
+      </c>
+      <c r="GE11" s="98">
+        <v>0</v>
+      </c>
+      <c r="GF11" s="98">
+        <v>0</v>
+      </c>
+      <c r="GG11" s="98">
+        <v>0</v>
+      </c>
+      <c r="GH11" s="98">
+        <v>0</v>
+      </c>
+      <c r="GI11" s="98">
+        <v>0</v>
+      </c>
+      <c r="GJ11" s="98">
+        <v>0</v>
+      </c>
+      <c r="GK11" s="98">
+        <v>0</v>
+      </c>
+      <c r="GL11" s="98">
+        <v>0</v>
+      </c>
+      <c r="GM11" s="98">
+        <v>0</v>
+      </c>
+      <c r="GN11" s="98">
+        <v>0</v>
+      </c>
+      <c r="GO11" s="98">
+        <v>0</v>
+      </c>
+      <c r="GP11" s="98">
+        <v>0</v>
+      </c>
+      <c r="GQ11" s="98">
+        <v>0</v>
+      </c>
+      <c r="GR11" s="98">
+        <v>0</v>
+      </c>
+      <c r="GS11" s="98">
+        <v>0</v>
+      </c>
+      <c r="GT11" s="98">
+        <v>0</v>
+      </c>
+      <c r="GU11" s="98">
+        <v>0</v>
+      </c>
+      <c r="GV11" s="98">
+        <v>0</v>
+      </c>
+      <c r="GW11" s="98">
+        <v>0</v>
+      </c>
+      <c r="GX11" s="98">
+        <v>0</v>
+      </c>
+      <c r="GY11" s="98">
+        <v>0</v>
+      </c>
+      <c r="GZ11" s="98">
+        <v>0</v>
+      </c>
+      <c r="HA11" s="98">
+        <v>0</v>
+      </c>
+      <c r="HB11" s="98">
+        <v>0</v>
+      </c>
+      <c r="HC11" s="98">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:211" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:211" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>85</v>
       </c>
@@ -11631,7 +12541,7 @@
         <v>10000410.316529894</v>
       </c>
     </row>
-    <row r="13" spans="1:211" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:211" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>320</v>
       </c>
@@ -12267,7 +13177,7 @@
         <v>10035705.882352941</v>
       </c>
     </row>
-    <row r="14" spans="1:211" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:211" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -12903,7 +13813,7 @@
         <v>8322292.682926829</v>
       </c>
     </row>
-    <row r="15" spans="1:211" s="97" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:211" s="97" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="97" t="s">
         <v>37</v>
       </c>
@@ -13264,99 +14174,281 @@
       <c r="DP15" s="98">
         <v>0</v>
       </c>
-      <c r="DQ15" s="98"/>
-      <c r="DR15" s="98"/>
-      <c r="DS15" s="98"/>
-      <c r="DT15" s="98"/>
-      <c r="DU15" s="98"/>
-      <c r="DV15" s="98"/>
-      <c r="DW15" s="98"/>
-      <c r="DX15" s="98"/>
-      <c r="DY15" s="98"/>
-      <c r="DZ15" s="98"/>
-      <c r="EA15" s="98"/>
-      <c r="EB15" s="98"/>
-      <c r="EC15" s="98"/>
-      <c r="ED15" s="98"/>
-      <c r="EE15" s="98"/>
-      <c r="EF15" s="98"/>
-      <c r="EG15" s="98"/>
-      <c r="EH15" s="98"/>
-      <c r="EI15" s="98"/>
-      <c r="EJ15" s="98"/>
-      <c r="EK15" s="98"/>
-      <c r="EL15" s="98"/>
-      <c r="EM15" s="98"/>
-      <c r="EN15" s="98"/>
-      <c r="EO15" s="98"/>
-      <c r="EP15" s="98"/>
-      <c r="EQ15" s="98"/>
-      <c r="ER15" s="98"/>
-      <c r="ES15" s="98"/>
-      <c r="ET15" s="98"/>
-      <c r="EU15" s="98"/>
-      <c r="EV15" s="98"/>
-      <c r="EW15" s="98"/>
-      <c r="EX15" s="98"/>
-      <c r="EY15" s="98"/>
-      <c r="EZ15" s="98"/>
-      <c r="FA15" s="98"/>
-      <c r="FB15" s="98"/>
-      <c r="FC15" s="98"/>
-      <c r="FD15" s="98"/>
-      <c r="FE15" s="98"/>
-      <c r="FF15" s="98"/>
-      <c r="FG15" s="98"/>
-      <c r="FH15" s="98"/>
-      <c r="FI15" s="98"/>
-      <c r="FJ15" s="98"/>
-      <c r="FK15" s="98"/>
-      <c r="FL15" s="98"/>
-      <c r="FM15" s="98"/>
-      <c r="FN15" s="98"/>
-      <c r="FO15" s="98"/>
-      <c r="FP15" s="98"/>
-      <c r="FQ15" s="98"/>
-      <c r="FR15" s="98"/>
-      <c r="FS15" s="98"/>
-      <c r="FT15" s="98"/>
-      <c r="FU15" s="98"/>
-      <c r="FV15" s="98"/>
-      <c r="FW15" s="98"/>
-      <c r="FX15" s="98"/>
-      <c r="FY15" s="98"/>
-      <c r="FZ15" s="98"/>
-      <c r="GA15" s="98"/>
-      <c r="GB15" s="98"/>
-      <c r="GC15" s="98"/>
-      <c r="GD15" s="98"/>
-      <c r="GE15" s="98"/>
-      <c r="GF15" s="98"/>
-      <c r="GG15" s="98"/>
-      <c r="GH15" s="98"/>
-      <c r="GI15" s="98"/>
-      <c r="GJ15" s="98"/>
-      <c r="GK15" s="98"/>
-      <c r="GL15" s="98"/>
-      <c r="GM15" s="98"/>
-      <c r="GN15" s="98"/>
-      <c r="GO15" s="98"/>
-      <c r="GP15" s="98"/>
-      <c r="GQ15" s="98"/>
-      <c r="GR15" s="98"/>
-      <c r="GS15" s="98"/>
-      <c r="GT15" s="98"/>
-      <c r="GU15" s="98"/>
-      <c r="GV15" s="98"/>
-      <c r="GW15" s="98"/>
-      <c r="GX15" s="98"/>
-      <c r="GY15" s="98"/>
-      <c r="GZ15" s="98"/>
-      <c r="HA15" s="98"/>
-      <c r="HB15" s="98"/>
-      <c r="HC15" s="98"/>
+      <c r="DQ15" s="98">
+        <v>0</v>
+      </c>
+      <c r="DR15" s="98">
+        <v>0</v>
+      </c>
+      <c r="DS15" s="98">
+        <v>0</v>
+      </c>
+      <c r="DT15" s="98">
+        <v>0</v>
+      </c>
+      <c r="DU15" s="98">
+        <v>0</v>
+      </c>
+      <c r="DV15" s="98">
+        <v>0</v>
+      </c>
+      <c r="DW15" s="98">
+        <v>0</v>
+      </c>
+      <c r="DX15" s="98">
+        <v>0</v>
+      </c>
+      <c r="DY15" s="98">
+        <v>0</v>
+      </c>
+      <c r="DZ15" s="98">
+        <v>0</v>
+      </c>
+      <c r="EA15" s="98">
+        <v>0</v>
+      </c>
+      <c r="EB15" s="98">
+        <v>0</v>
+      </c>
+      <c r="EC15" s="98">
+        <v>0</v>
+      </c>
+      <c r="ED15" s="98">
+        <v>0</v>
+      </c>
+      <c r="EE15" s="98">
+        <v>0</v>
+      </c>
+      <c r="EF15" s="98">
+        <v>0</v>
+      </c>
+      <c r="EG15" s="98">
+        <v>0</v>
+      </c>
+      <c r="EH15" s="98">
+        <v>0</v>
+      </c>
+      <c r="EI15" s="98">
+        <v>0</v>
+      </c>
+      <c r="EJ15" s="98">
+        <v>0</v>
+      </c>
+      <c r="EK15" s="98">
+        <v>0</v>
+      </c>
+      <c r="EL15" s="98">
+        <v>0</v>
+      </c>
+      <c r="EM15" s="98">
+        <v>0</v>
+      </c>
+      <c r="EN15" s="98">
+        <v>0</v>
+      </c>
+      <c r="EO15" s="98">
+        <v>0</v>
+      </c>
+      <c r="EP15" s="98">
+        <v>0</v>
+      </c>
+      <c r="EQ15" s="98">
+        <v>0</v>
+      </c>
+      <c r="ER15" s="98">
+        <v>0</v>
+      </c>
+      <c r="ES15" s="98">
+        <v>0</v>
+      </c>
+      <c r="ET15" s="98">
+        <v>0</v>
+      </c>
+      <c r="EU15" s="98">
+        <v>0</v>
+      </c>
+      <c r="EV15" s="98">
+        <v>0</v>
+      </c>
+      <c r="EW15" s="98">
+        <v>0</v>
+      </c>
+      <c r="EX15" s="98">
+        <v>0</v>
+      </c>
+      <c r="EY15" s="98">
+        <v>0</v>
+      </c>
+      <c r="EZ15" s="98">
+        <v>0</v>
+      </c>
+      <c r="FA15" s="98">
+        <v>0</v>
+      </c>
+      <c r="FB15" s="98">
+        <v>0</v>
+      </c>
+      <c r="FC15" s="98">
+        <v>0</v>
+      </c>
+      <c r="FD15" s="98">
+        <v>0</v>
+      </c>
+      <c r="FE15" s="98">
+        <v>0</v>
+      </c>
+      <c r="FF15" s="98">
+        <v>0</v>
+      </c>
+      <c r="FG15" s="98">
+        <v>0</v>
+      </c>
+      <c r="FH15" s="98">
+        <v>0</v>
+      </c>
+      <c r="FI15" s="98">
+        <v>0</v>
+      </c>
+      <c r="FJ15" s="98">
+        <v>0</v>
+      </c>
+      <c r="FK15" s="98">
+        <v>0</v>
+      </c>
+      <c r="FL15" s="98">
+        <v>0</v>
+      </c>
+      <c r="FM15" s="98">
+        <v>0</v>
+      </c>
+      <c r="FN15" s="98">
+        <v>0</v>
+      </c>
+      <c r="FO15" s="98">
+        <v>0</v>
+      </c>
+      <c r="FP15" s="98">
+        <v>0</v>
+      </c>
+      <c r="FQ15" s="98">
+        <v>0</v>
+      </c>
+      <c r="FR15" s="98">
+        <v>0</v>
+      </c>
+      <c r="FS15" s="98">
+        <v>0</v>
+      </c>
+      <c r="FT15" s="98">
+        <v>0</v>
+      </c>
+      <c r="FU15" s="98">
+        <v>0</v>
+      </c>
+      <c r="FV15" s="98">
+        <v>0</v>
+      </c>
+      <c r="FW15" s="98">
+        <v>0</v>
+      </c>
+      <c r="FX15" s="98">
+        <v>0</v>
+      </c>
+      <c r="FY15" s="98">
+        <v>0</v>
+      </c>
+      <c r="FZ15" s="98">
+        <v>0</v>
+      </c>
+      <c r="GA15" s="98">
+        <v>0</v>
+      </c>
+      <c r="GB15" s="98">
+        <v>0</v>
+      </c>
+      <c r="GC15" s="98">
+        <v>0</v>
+      </c>
+      <c r="GD15" s="98">
+        <v>0</v>
+      </c>
+      <c r="GE15" s="98">
+        <v>0</v>
+      </c>
+      <c r="GF15" s="98">
+        <v>0</v>
+      </c>
+      <c r="GG15" s="98">
+        <v>0</v>
+      </c>
+      <c r="GH15" s="98">
+        <v>0</v>
+      </c>
+      <c r="GI15" s="98">
+        <v>0</v>
+      </c>
+      <c r="GJ15" s="98">
+        <v>0</v>
+      </c>
+      <c r="GK15" s="98">
+        <v>0</v>
+      </c>
+      <c r="GL15" s="98">
+        <v>0</v>
+      </c>
+      <c r="GM15" s="98">
+        <v>0</v>
+      </c>
+      <c r="GN15" s="98">
+        <v>0</v>
+      </c>
+      <c r="GO15" s="98">
+        <v>0</v>
+      </c>
+      <c r="GP15" s="98">
+        <v>0</v>
+      </c>
+      <c r="GQ15" s="98">
+        <v>0</v>
+      </c>
+      <c r="GR15" s="98">
+        <v>0</v>
+      </c>
+      <c r="GS15" s="98">
+        <v>0</v>
+      </c>
+      <c r="GT15" s="98">
+        <v>0</v>
+      </c>
+      <c r="GU15" s="98">
+        <v>0</v>
+      </c>
+      <c r="GV15" s="98">
+        <v>0</v>
+      </c>
+      <c r="GW15" s="98">
+        <v>0</v>
+      </c>
+      <c r="GX15" s="98">
+        <v>0</v>
+      </c>
+      <c r="GY15" s="98">
+        <v>0</v>
+      </c>
+      <c r="GZ15" s="98">
+        <v>0</v>
+      </c>
+      <c r="HA15" s="98">
+        <v>0</v>
+      </c>
+      <c r="HB15" s="98">
+        <v>0</v>
+      </c>
+      <c r="HC15" s="98">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:211" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:211" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -13992,7 +15084,7 @@
         <v>9748971.4285714291</v>
       </c>
     </row>
-    <row r="17" spans="1:211" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:211" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>86</v>
       </c>
@@ -14628,7 +15720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:211" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:211" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -15264,7 +16356,7 @@
         <v>17060700</v>
       </c>
     </row>
-    <row r="19" spans="1:211" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:211" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>87</v>
       </c>
@@ -15900,7 +16992,7 @@
         <v>9222000</v>
       </c>
     </row>
-    <row r="20" spans="1:211" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:211" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>88</v>
       </c>
@@ -16536,7 +17628,7 @@
         <v>7935209.3023255812</v>
       </c>
     </row>
-    <row r="21" spans="1:211" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:211" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>89</v>
       </c>
@@ -17172,7 +18264,7 @@
         <v>12637555.555555552</v>
       </c>
     </row>
-    <row r="22" spans="1:211" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:211" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>90</v>
       </c>
@@ -17808,7 +18900,7 @@
         <v>10662937.5</v>
       </c>
     </row>
-    <row r="23" spans="1:211" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:211" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>91</v>
       </c>
@@ -18444,7 +19536,7 @@
         <v>10339818.181818182</v>
       </c>
     </row>
-    <row r="24" spans="1:211" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:211" x14ac:dyDescent="0.35">
       <c r="A24" s="77" t="s">
         <v>93</v>
       </c>
@@ -19080,7 +20172,7 @@
         <v>8530350</v>
       </c>
     </row>
-    <row r="25" spans="1:211" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:211" x14ac:dyDescent="0.35">
       <c r="A25" s="77" t="s">
         <v>95</v>
       </c>
@@ -19729,19 +20821,19 @@
   </sheetPr>
   <dimension ref="A1:HC25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="DT1" activePane="topRight" state="frozen"/>
       <selection activeCell="B25" sqref="B25:HC25"/>
       <selection pane="topRight" activeCell="EA8" sqref="EA8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="36.28515625" customWidth="1"/>
-    <col min="2" max="211" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="36.26953125" customWidth="1"/>
+    <col min="2" max="211" width="13.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:211" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:211" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
         <v>321</v>
       </c>
@@ -20376,7 +21468,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="2" spans="1:211" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:211" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -21093,7 +22185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:211" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:211" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>317</v>
       </c>
@@ -21810,7 +22902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:211" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:211" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>82</v>
       </c>
@@ -22527,7 +23619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:211" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:211" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>318</v>
       </c>
@@ -23244,7 +24336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:211" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:211" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -23961,7 +25053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:211" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:211" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -24678,7 +25770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:211" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:211" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>319</v>
       </c>
@@ -25395,7 +26487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:211" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:211" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -26112,7 +27204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:211" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:211" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -26829,7 +27921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:211" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:211" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -27546,7 +28638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:211" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:211" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>85</v>
       </c>
@@ -28263,7 +29355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:211" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:211" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>320</v>
       </c>
@@ -28980,7 +30072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:211" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:211" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -29697,7 +30789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:211" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:211" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -30414,7 +31506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:211" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:211" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -31051,7 +32143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:211" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:211" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>86</v>
       </c>
@@ -31686,7 +32778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:211" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:211" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -32321,7 +33413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:211" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:211" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>87</v>
       </c>
@@ -32956,7 +34048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:211" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:211" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>88</v>
       </c>
@@ -33591,7 +34683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:211" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:211" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>89</v>
       </c>
@@ -34226,7 +35318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:211" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:211" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>90</v>
       </c>
@@ -34861,7 +35953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:211" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:211" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>91</v>
       </c>
@@ -35496,7 +36588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:211" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:211" x14ac:dyDescent="0.35">
       <c r="A24" s="77" t="s">
         <v>93</v>
       </c>
@@ -36131,7 +37223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:211" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:211" x14ac:dyDescent="0.35">
       <c r="A25" s="77" t="s">
         <v>95</v>
       </c>
@@ -36772,6 +37864,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A08BDF573E2FFD46A5F05DED9AF68025" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f85c0eb68479ad8b8987805fd5b8836b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="00484652-42e1-479e-92f4-fb0efddcdf60" xmlns:ns3="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f7dbc72841229da9eaa30ebb1456cd70" ns2:_="" ns3:_="">
     <xsd:import namespace="00484652-42e1-479e-92f4-fb0efddcdf60"/>
@@ -36994,15 +38095,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -37015,6 +38107,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE53B774-577E-4215-97DA-2991DC7CFD5B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62BCA187-4C93-42D0-A2D6-6C2E53429CBC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -37033,14 +38133,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE53B774-577E-4215-97DA-2991DC7CFD5B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65D5533F-31BC-4F03-AAAA-A9D02BE279DF}">
   <ds:schemaRefs>

--- a/InputData/elec/BHRaSYC/BAU Heat Rates and Start Year Capacities.xlsx
+++ b/InputData/elec/BHRaSYC/BAU Heat Rates and Start Year Capacities.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mary Francis Swint\Vensim\eps-eu\InputData\elec\BHRaSYC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robbie\Dropbox (Energy Innovation)\My Documents\Energy Policy Solutions\European Union\Models\eps-eu\InputData\elec\BHRaSYC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E9AC9B-5271-4AA7-9CF8-E14388EB89C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCF1EA90-00A1-4060-AE84-DC8C134A4978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2450" yWindow="1520" windowWidth="14400" windowHeight="8170" firstSheet="6" activeTab="7" xr2:uid="{58905A94-BA09-4443-B274-BF752AC962AF}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="38580" windowHeight="21180" activeTab="8" xr2:uid="{58905A94-BA09-4443-B274-BF752AC962AF}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="13" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="325">
   <si>
     <t>BHRaSYC - BAU Heat Rate and Start Year Capacity</t>
   </si>
@@ -1042,6 +1042,15 @@
   <si>
     <t>Start Year Capacities (MW)</t>
   </si>
+  <si>
+    <t>EPS power plant type</t>
+  </si>
+  <si>
+    <t>hydro</t>
+  </si>
+  <si>
+    <t>petroleum diesel</t>
+  </si>
 </sst>
 </file>
 
@@ -1366,7 +1375,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1502,6 +1511,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1638,9 +1648,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1678,7 +1688,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1784,7 +1794,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1926,7 +1936,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1940,22 +1950,22 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="10.81640625" style="44"/>
-    <col min="3" max="3" width="45.26953125" style="44" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.81640625" style="44"/>
+    <col min="1" max="2" width="10.85546875" style="44"/>
+    <col min="3" max="3" width="45.28515625" style="44" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.85546875" style="44"/>
   </cols>
   <sheetData>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="43" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="45"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="45" t="s">
         <v>1</v>
       </c>
@@ -1966,7 +1976,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="45"/>
       <c r="C14" s="45" t="s">
         <v>4</v>
@@ -1975,7 +1985,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="45"/>
       <c r="C15" s="45" t="s">
         <v>6</v>
@@ -1984,7 +1994,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C16" s="45" t="s">
         <v>8</v>
       </c>
@@ -1992,7 +2002,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C17" s="45" t="s">
         <v>10</v>
       </c>
@@ -2000,7 +2010,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C18" s="45" t="s">
         <v>12</v>
       </c>
@@ -2008,7 +2018,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C19" s="45" t="s">
         <v>14</v>
       </c>
@@ -2016,97 +2026,97 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C20" s="48"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="46" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="74" t="s">
         <v>17</v>
       </c>
       <c r="C22" s="47"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="74" t="s">
         <v>18</v>
       </c>
       <c r="C23" s="47"/>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="74" t="s">
         <v>19</v>
       </c>
       <c r="C24" s="47"/>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" s="74" t="s">
         <v>20</v>
       </c>
       <c r="C25" s="47"/>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="75" t="s">
         <v>21</v>
       </c>
       <c r="C26" s="47"/>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" s="74"/>
       <c r="C27" s="47"/>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" s="47"/>
       <c r="C28" s="47"/>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" s="74" t="s">
         <v>22</v>
       </c>
       <c r="C29" s="74"/>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" s="74"/>
       <c r="C30" s="76" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" s="74"/>
       <c r="C31" s="76" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" s="74"/>
       <c r="C32" s="76" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="47"/>
       <c r="C33" s="47"/>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="47"/>
       <c r="C34" s="47"/>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="47"/>
       <c r="C35" s="47"/>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" s="47"/>
       <c r="C36" s="47"/>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" s="47"/>
       <c r="C37" s="47"/>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" s="47"/>
       <c r="C38" s="47"/>
     </row>
@@ -2128,15 +2138,15 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:E22"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>26</v>
       </c>
@@ -2153,7 +2163,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -2170,7 +2180,7 @@
         <v>74886</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -2187,7 +2197,7 @@
         <v>104643</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -2204,7 +2214,7 @@
         <v>108828</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -2221,7 +2231,7 @@
         <v>173233</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -2238,7 +2248,7 @@
         <v>162354</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -2255,7 +2265,7 @@
         <v>2321</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -2272,7 +2282,7 @@
         <v>21045</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -2289,7 +2299,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -2306,7 +2316,7 @@
         <v>47210</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>37</v>
       </c>
@@ -2323,7 +2333,7 @@
         <v>15137</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -2340,7 +2350,7 @@
         <v>16954</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -2357,7 +2367,7 @@
         <v>4346</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -2374,7 +2384,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -2391,7 +2401,7 @@
         <v>159729.6721919495</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>42</v>
       </c>
@@ -2408,7 +2418,7 @@
         <v>7430.1221289052428</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>43</v>
       </c>
@@ -2425,7 +2435,7 @@
         <v>13199.205679145252</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -2442,7 +2452,7 @@
         <v>180359</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>45</v>
       </c>
@@ -2459,7 +2469,7 @@
         <v>114216</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -2476,7 +2486,7 @@
         <v>41683</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="52" t="s">
         <v>47</v>
       </c>
@@ -2496,7 +2506,7 @@
         <v>55200.36</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="58" t="s">
         <v>48</v>
       </c>
@@ -2516,54 +2526,54 @@
         <v>107153.64</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="54"/>
       <c r="C23" s="55"/>
       <c r="D23" s="55"/>
       <c r="E23" s="55"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="56" t="s">
         <v>55</v>
       </c>
       <c r="B31" s="57"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="50" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
         <v>57</v>
       </c>
@@ -2571,7 +2581,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>58</v>
       </c>
@@ -2579,7 +2589,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>59</v>
       </c>
@@ -2603,18 +2613,18 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.1796875" customWidth="1"/>
-    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.453125" customWidth="1"/>
-    <col min="6" max="6" width="28.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" customWidth="1"/>
+    <col min="6" max="6" width="28.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
         <v>60</v>
       </c>
@@ -2632,7 +2642,7 @@
       </c>
       <c r="F2" s="17"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>27</v>
       </c>
@@ -2650,7 +2660,7 @@
         <v>53935</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>28</v>
       </c>
@@ -2668,7 +2678,7 @@
         <v>101730</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>29</v>
       </c>
@@ -2687,7 +2697,7 @@
         <v>139985</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>30</v>
       </c>
@@ -2705,7 +2715,7 @@
         <v>162872</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>65</v>
       </c>
@@ -2724,7 +2734,7 @@
         <v>136377</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>34</v>
       </c>
@@ -2742,7 +2752,7 @@
         <v>12760</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>35</v>
       </c>
@@ -2759,7 +2769,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>36</v>
       </c>
@@ -2777,7 +2787,7 @@
         <v>46171</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>37</v>
       </c>
@@ -2795,7 +2805,7 @@
         <v>14535</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>38</v>
       </c>
@@ -2813,7 +2823,7 @@
         <v>23097</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>39</v>
       </c>
@@ -2830,7 +2840,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>40</v>
       </c>
@@ -2848,7 +2858,7 @@
         <v>10987</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>41</v>
       </c>
@@ -2866,7 +2876,7 @@
         <v>120107</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>42</v>
       </c>
@@ -2884,7 +2894,7 @@
         <v>5587</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>43</v>
       </c>
@@ -2902,7 +2912,7 @@
         <v>9925</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>44</v>
       </c>
@@ -2923,7 +2933,7 @@
         <v>135619</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>32</v>
       </c>
@@ -2939,7 +2949,7 @@
       </c>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>67</v>
       </c>
@@ -2954,7 +2964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="60" t="s">
         <v>47</v>
       </c>
@@ -2972,7 +2982,7 @@
         <v>41693</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="62" t="s">
         <v>48</v>
       </c>
@@ -2990,26 +3000,26 @@
         <v>92380</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
     </row>
   </sheetData>
@@ -3019,21 +3029,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E9C7F64-E096-4DBD-8D74-31E552F7DAA9}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C21" sqref="C21:F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.453125" customWidth="1"/>
+    <col min="1" max="1" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
         <v>70</v>
       </c>
@@ -3052,8 +3062,11 @@
       <c r="F2" s="21" t="s">
         <v>72</v>
       </c>
+      <c r="G2" s="99" t="s">
+        <v>322</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>27</v>
       </c>
@@ -3076,8 +3089,11 @@
         <f>'Raw Capacities 2019'!E2</f>
         <v>74886</v>
       </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>28</v>
       </c>
@@ -3100,8 +3116,11 @@
         <f>'Raw Capacities 2019'!E3</f>
         <v>104643</v>
       </c>
+      <c r="G4" t="s">
+        <v>318</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>29</v>
       </c>
@@ -3124,8 +3143,11 @@
         <f>'Raw Capacities 2019'!E4</f>
         <v>108828</v>
       </c>
+      <c r="G5" t="s">
+        <v>323</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>30</v>
       </c>
@@ -3148,8 +3170,11 @@
         <f>'Raw Capacities 2019'!E5</f>
         <v>173233</v>
       </c>
+      <c r="G6" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>65</v>
       </c>
@@ -3173,7 +3198,7 @@
         <v>162354</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>34</v>
       </c>
@@ -3196,8 +3221,11 @@
         <f>'Raw Capacities 2019'!E8</f>
         <v>21045</v>
       </c>
+      <c r="G8" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>35</v>
       </c>
@@ -3220,8 +3248,11 @@
         <f>'Raw Capacities 2019'!E9</f>
         <v>944</v>
       </c>
+      <c r="G9" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>36</v>
       </c>
@@ -3244,8 +3275,11 @@
         <f>'Raw Capacities 2019'!E10</f>
         <v>47210</v>
       </c>
+      <c r="G10" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>37</v>
       </c>
@@ -3268,8 +3302,11 @@
         <f>'Raw Capacities 2019'!E11</f>
         <v>15137</v>
       </c>
+      <c r="G11" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>38</v>
       </c>
@@ -3292,8 +3329,11 @@
         <f>'Raw Capacities 2019'!E12</f>
         <v>16954</v>
       </c>
+      <c r="G12" t="s">
+        <v>324</v>
+      </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>39</v>
       </c>
@@ -3316,8 +3356,11 @@
         <f>'Raw Capacities 2019'!E13</f>
         <v>4346</v>
       </c>
+      <c r="G13" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>40</v>
       </c>
@@ -3341,7 +3384,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>41</v>
       </c>
@@ -3364,8 +3407,11 @@
         <f>'Raw Capacities 2019'!E15</f>
         <v>159729.6721919495</v>
       </c>
+      <c r="G15" t="s">
+        <v>82</v>
+      </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>42</v>
       </c>
@@ -3388,8 +3434,11 @@
         <f>'Raw Capacities 2019'!E16</f>
         <v>7430.1221289052428</v>
       </c>
+      <c r="G16" t="s">
+        <v>317</v>
+      </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>43</v>
       </c>
@@ -3412,8 +3461,11 @@
         <f>'Raw Capacities 2019'!E17</f>
         <v>13199.205679145252</v>
       </c>
+      <c r="G17" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>44</v>
       </c>
@@ -3437,7 +3489,7 @@
         <v>180359</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>32</v>
       </c>
@@ -3461,7 +3513,7 @@
         <v>162354</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>33</v>
       </c>
@@ -3484,8 +3536,11 @@
         <f>'Raw Capacities 2019'!E7</f>
         <v>2321</v>
       </c>
+      <c r="G20" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="60" t="s">
         <v>47</v>
       </c>
@@ -3507,8 +3562,11 @@
         <f>'Raw Capacities 2019'!E21</f>
         <v>55200.36</v>
       </c>
+      <c r="G21" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="62" t="s">
         <v>48</v>
       </c>
@@ -3531,22 +3589,24 @@
         <v>107153.64</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>73</v>
       </c>
+      <c r="G25" s="77"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="G26" s="77"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>75</v>
       </c>
@@ -3560,24 +3620,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F36C1960-91B9-44C1-82B4-21FF5B1F6085}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="40.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="40.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>26</v>
       </c>
@@ -3594,7 +3654,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>27</v>
       </c>
@@ -3609,7 +3669,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>28</v>
       </c>
@@ -3629,7 +3689,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="38" t="s">
         <v>29</v>
       </c>
@@ -3638,7 +3698,7 @@
       <c r="D5" s="82"/>
       <c r="E5" s="18"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="38" t="s">
         <v>30</v>
       </c>
@@ -3647,7 +3707,7 @@
       <c r="D6" s="82"/>
       <c r="E6" s="18"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="38" t="s">
         <v>65</v>
       </c>
@@ -3656,7 +3716,7 @@
       <c r="D7" s="82"/>
       <c r="E7" s="18"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>34</v>
       </c>
@@ -3672,7 +3732,7 @@
         <v>0.318</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="38" t="s">
         <v>35</v>
       </c>
@@ -3681,7 +3741,7 @@
       <c r="D9" s="82"/>
       <c r="E9" s="18"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>36</v>
       </c>
@@ -3696,7 +3756,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="38" t="s">
         <v>37</v>
       </c>
@@ -3705,7 +3765,7 @@
       <c r="D11" s="82"/>
       <c r="E11" s="18"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>38</v>
       </c>
@@ -3720,7 +3780,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>39</v>
       </c>
@@ -3735,7 +3795,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
         <v>40</v>
       </c>
@@ -3744,7 +3804,7 @@
       <c r="D14" s="82"/>
       <c r="E14" s="18"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>82</v>
       </c>
@@ -3759,7 +3819,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>83</v>
       </c>
@@ -3774,7 +3834,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>84</v>
       </c>
@@ -3789,7 +3849,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>44</v>
       </c>
@@ -3798,7 +3858,7 @@
       <c r="D18" s="82"/>
       <c r="E18" s="18"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
         <v>85</v>
       </c>
@@ -3813,7 +3873,7 @@
         <v>0.3412</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="26" t="s">
         <v>86</v>
       </c>
@@ -3828,7 +3888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="26" t="s">
         <v>87</v>
       </c>
@@ -3843,7 +3903,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="26" t="s">
         <v>88</v>
       </c>
@@ -3858,7 +3918,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="26" t="s">
         <v>89</v>
       </c>
@@ -3873,7 +3933,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="26" t="s">
         <v>90</v>
       </c>
@@ -3888,7 +3948,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="26" t="s">
         <v>91</v>
       </c>
@@ -3906,7 +3966,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="85" t="s">
         <v>93</v>
       </c>
@@ -3924,7 +3984,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="86" t="s">
         <v>95</v>
       </c>
@@ -3939,42 +3999,42 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="31" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="30" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="33" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="34" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="35" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="41" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="78" t="s">
         <v>101</v>
       </c>
@@ -3997,13 +4057,13 @@
       <selection activeCell="A19" sqref="A19:A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="41.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="41.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
         <v>76</v>
       </c>
@@ -4012,7 +4072,7 @@
       <c r="D1" s="24"/>
       <c r="E1" s="24"/>
     </row>
-    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
         <v>26</v>
       </c>
@@ -4029,7 +4089,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>27</v>
       </c>
@@ -4047,7 +4107,7 @@
         <v>2.2727272727272729</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>28</v>
       </c>
@@ -4068,7 +4128,7 @@
         <v>2.7027027027027026</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>29</v>
       </c>
@@ -4077,7 +4137,7 @@
       <c r="D5" s="82"/>
       <c r="E5" s="18"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>30</v>
       </c>
@@ -4086,7 +4146,7 @@
       <c r="D6" s="82"/>
       <c r="E6" s="18"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>65</v>
       </c>
@@ -4095,7 +4155,7 @@
       <c r="D7" s="82"/>
       <c r="E7" s="18"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>34</v>
       </c>
@@ -4113,7 +4173,7 @@
         <v>3.1446540880503142</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>35</v>
       </c>
@@ -4122,7 +4182,7 @@
       <c r="D9" s="82"/>
       <c r="E9" s="18"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>36</v>
       </c>
@@ -4140,7 +4200,7 @@
         <v>2.4390243902439024</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>37</v>
       </c>
@@ -4149,7 +4209,7 @@
       <c r="D11" s="82"/>
       <c r="E11" s="18"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>38</v>
       </c>
@@ -4167,7 +4227,7 @@
         <v>2.8571428571428572</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>39</v>
       </c>
@@ -4185,7 +4245,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>40</v>
       </c>
@@ -4194,7 +4254,7 @@
       <c r="D14" s="82"/>
       <c r="E14" s="18"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>41</v>
       </c>
@@ -4212,7 +4272,7 @@
         <v>1.9230769230769229</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>42</v>
       </c>
@@ -4230,7 +4290,7 @@
         <v>2.9411764705882351</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>43</v>
       </c>
@@ -4248,7 +4308,7 @@
         <v>1.3333333333333333</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>44</v>
       </c>
@@ -4266,7 +4326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
         <v>85</v>
       </c>
@@ -4284,7 +4344,7 @@
         <v>2.9308323563892147</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="26" t="s">
         <v>86</v>
       </c>
@@ -4302,7 +4362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="26" t="s">
         <v>87</v>
       </c>
@@ -4320,7 +4380,7 @@
         <v>2.7027027027027026</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="26" t="s">
         <v>88</v>
       </c>
@@ -4338,7 +4398,7 @@
         <v>2.3255813953488373</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="26" t="s">
         <v>89</v>
       </c>
@@ -4356,7 +4416,7 @@
         <v>3.7037037037037033</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="26" t="s">
         <v>90</v>
       </c>
@@ -4374,7 +4434,7 @@
         <v>3.125</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="26" t="s">
         <v>91</v>
       </c>
@@ -4392,7 +4452,7 @@
         <v>3.0303030303030303</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="85" t="s">
         <v>93</v>
       </c>
@@ -4410,7 +4470,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="86" t="s">
         <v>95</v>
       </c>
@@ -4428,13 +4488,13 @@
         <v>1.9230769230769229</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
     </row>
   </sheetData>
@@ -4450,12 +4510,12 @@
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="5" width="41.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="41.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
         <v>76</v>
       </c>
@@ -4463,7 +4523,7 @@
       <c r="C1" s="23"/>
       <c r="D1" s="23"/>
     </row>
-    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="68" t="s">
         <v>26</v>
       </c>
@@ -4480,7 +4540,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="68" t="s">
         <v>27</v>
       </c>
@@ -4498,7 +4558,7 @@
         <v>7754863.6363636367</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>28</v>
       </c>
@@ -4519,7 +4579,7 @@
         <v>9222000</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>29</v>
       </c>
@@ -4528,7 +4588,7 @@
       <c r="D5" s="90"/>
       <c r="E5" s="73"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>30</v>
       </c>
@@ -4537,7 +4597,7 @@
       <c r="D6" s="90"/>
       <c r="E6" s="73"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>65</v>
       </c>
@@ -4546,7 +4606,7 @@
       <c r="D7" s="92"/>
       <c r="E7" s="73"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
         <v>34</v>
       </c>
@@ -4564,7 +4624,7 @@
         <v>10729999.999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>35</v>
       </c>
@@ -4573,7 +4633,7 @@
       <c r="D9" s="92"/>
       <c r="E9" s="73"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>36</v>
       </c>
@@ -4591,7 +4651,7 @@
         <v>8322292.682926829</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
         <v>37</v>
       </c>
@@ -4600,7 +4660,7 @@
       <c r="D11" s="92"/>
       <c r="E11" s="73"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
         <v>38</v>
       </c>
@@ -4618,7 +4678,7 @@
         <v>9748971.4285714291</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
         <v>39</v>
       </c>
@@ -4636,7 +4696,7 @@
         <v>17060700</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
         <v>40</v>
       </c>
@@ -4645,7 +4705,7 @@
       <c r="D14" s="92"/>
       <c r="E14" s="73"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
         <v>41</v>
       </c>
@@ -4663,7 +4723,7 @@
         <v>6561807.6923076911</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
         <v>42</v>
       </c>
@@ -4681,7 +4741,7 @@
         <v>10035705.882352941</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>43</v>
       </c>
@@ -4699,7 +4759,7 @@
         <v>4549519.9999999991</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>32</v>
       </c>
@@ -4708,7 +4768,7 @@
       <c r="D18" s="90"/>
       <c r="E18" s="73"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>33</v>
       </c>
@@ -4717,7 +4777,7 @@
       <c r="D19" s="90"/>
       <c r="E19" s="73"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="26" t="s">
         <v>85</v>
       </c>
@@ -4735,7 +4795,7 @@
         <v>10000410.316529894</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="26" t="s">
         <v>86</v>
       </c>
@@ -4753,7 +4813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="26" t="s">
         <v>87</v>
       </c>
@@ -4771,7 +4831,7 @@
         <v>9222000</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="26" t="s">
         <v>88</v>
       </c>
@@ -4789,7 +4849,7 @@
         <v>7935209.3023255812</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="26" t="s">
         <v>89</v>
       </c>
@@ -4807,7 +4867,7 @@
         <v>12637555.555555552</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="26" t="s">
         <v>90</v>
       </c>
@@ -4825,7 +4885,7 @@
         <v>10662937.5</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="26" t="s">
         <v>91</v>
       </c>
@@ -4843,7 +4903,7 @@
         <v>10339818.181818182</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="85" t="s">
         <v>93</v>
       </c>
@@ -4861,7 +4921,7 @@
         <v>8530350</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="86" t="s">
         <v>95</v>
       </c>
@@ -4879,13 +4939,13 @@
         <v>6561807.6923076911</v>
       </c>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33">
         <f>9684100/(3412*1000)</f>
         <v>2.838247362250879</v>
       </c>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34">
         <f>1/C33</f>
         <v>0.35233010811536436</v>
@@ -4903,19 +4963,19 @@
   </sheetPr>
   <dimension ref="A1:HC25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <pane xSplit="1" topLeftCell="DP1" activePane="topRight" state="frozen"/>
       <selection activeCell="B25" sqref="B25:HC25"/>
-      <selection pane="topRight" activeCell="DQ27" sqref="DQ27"/>
+      <selection pane="topRight" activeCell="DS43" sqref="DS43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.26953125" customWidth="1"/>
-    <col min="2" max="211" width="13.26953125" customWidth="1"/>
+    <col min="1" max="1" width="36.28515625" customWidth="1"/>
+    <col min="2" max="211" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:211" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:211" x14ac:dyDescent="0.25">
       <c r="A1" s="95" t="s">
         <v>106</v>
       </c>
@@ -5550,7 +5610,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="2" spans="1:211" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:211" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -6186,7 +6246,7 @@
         <v>7754863.6363636367</v>
       </c>
     </row>
-    <row r="3" spans="1:211" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:211" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>317</v>
       </c>
@@ -6822,7 +6882,7 @@
         <v>4549519.9999999991</v>
       </c>
     </row>
-    <row r="4" spans="1:211" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:211" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>82</v>
       </c>
@@ -7458,7 +7518,7 @@
         <v>6561807.6923076911</v>
       </c>
     </row>
-    <row r="5" spans="1:211" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:211" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>318</v>
       </c>
@@ -8094,7 +8154,7 @@
         <v>9222000</v>
       </c>
     </row>
-    <row r="6" spans="1:211" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:211" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="97" t="s">
         <v>29</v>
       </c>
@@ -8729,7 +8789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:211" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:211" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="97" t="s">
         <v>30</v>
       </c>
@@ -9364,7 +9424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:211" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:211" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="97" t="s">
         <v>319</v>
       </c>
@@ -9999,7 +10059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:211" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:211" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="97" t="s">
         <v>33</v>
       </c>
@@ -10634,7 +10694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:211" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:211" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -11270,7 +11330,7 @@
         <v>10729999.999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:211" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:211" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="97" t="s">
         <v>35</v>
       </c>
@@ -11905,7 +11965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:211" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:211" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>85</v>
       </c>
@@ -12541,7 +12601,7 @@
         <v>10000410.316529894</v>
       </c>
     </row>
-    <row r="13" spans="1:211" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:211" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>320</v>
       </c>
@@ -13177,7 +13237,7 @@
         <v>10035705.882352941</v>
       </c>
     </row>
-    <row r="14" spans="1:211" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:211" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -13813,7 +13873,7 @@
         <v>8322292.682926829</v>
       </c>
     </row>
-    <row r="15" spans="1:211" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:211" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="97" t="s">
         <v>37</v>
       </c>
@@ -14448,7 +14508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:211" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:211" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -15084,7 +15144,7 @@
         <v>9748971.4285714291</v>
       </c>
     </row>
-    <row r="17" spans="1:211" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:211" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>86</v>
       </c>
@@ -15720,7 +15780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:211" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:211" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -16356,7 +16416,7 @@
         <v>17060700</v>
       </c>
     </row>
-    <row r="19" spans="1:211" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:211" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>87</v>
       </c>
@@ -16992,7 +17052,7 @@
         <v>9222000</v>
       </c>
     </row>
-    <row r="20" spans="1:211" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:211" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>88</v>
       </c>
@@ -17628,7 +17688,7 @@
         <v>7935209.3023255812</v>
       </c>
     </row>
-    <row r="21" spans="1:211" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:211" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>89</v>
       </c>
@@ -18264,7 +18324,7 @@
         <v>12637555.555555552</v>
       </c>
     </row>
-    <row r="22" spans="1:211" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:211" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>90</v>
       </c>
@@ -18900,7 +18960,7 @@
         <v>10662937.5</v>
       </c>
     </row>
-    <row r="23" spans="1:211" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:211" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>91</v>
       </c>
@@ -19536,7 +19596,7 @@
         <v>10339818.181818182</v>
       </c>
     </row>
-    <row r="24" spans="1:211" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:211" x14ac:dyDescent="0.25">
       <c r="A24" s="77" t="s">
         <v>93</v>
       </c>
@@ -20172,7 +20232,7 @@
         <v>8530350</v>
       </c>
     </row>
-    <row r="25" spans="1:211" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:211" x14ac:dyDescent="0.25">
       <c r="A25" s="77" t="s">
         <v>95</v>
       </c>
@@ -20821,19 +20881,19 @@
   </sheetPr>
   <dimension ref="A1:HC25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="DT1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="DD1" activePane="topRight" state="frozen"/>
       <selection activeCell="B25" sqref="B25:HC25"/>
-      <selection pane="topRight" activeCell="EA8" sqref="EA8"/>
+      <selection pane="topRight" activeCell="DP40" sqref="DP40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.26953125" customWidth="1"/>
-    <col min="2" max="211" width="13.26953125" customWidth="1"/>
+    <col min="1" max="1" width="36.28515625" customWidth="1"/>
+    <col min="2" max="211" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:211" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:211" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>321</v>
       </c>
@@ -21468,7 +21528,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="2" spans="1:211" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:211" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -21827,7 +21887,7 @@
         <v>0</v>
       </c>
       <c r="DP2" s="27">
-        <f>'Start year capacity (MW)'!C3+'Start year capacity (MW)'!D3</f>
+        <f>SUMIFS('Start year capacity (MW)'!$C$3:$C$22,'Start year capacity (MW)'!$G$3:$G$22,A2)+SUMIFS('Start year capacity (MW)'!$D$3:$D$22,'Start year capacity (MW)'!$G$3:$G$22,$A2)</f>
         <v>48397</v>
       </c>
       <c r="DQ2">
@@ -21861,7 +21921,7 @@
         <v>0</v>
       </c>
       <c r="EA2" s="27">
-        <f>'Start year capacity (MW)'!$B3</f>
+        <f>SUMIFS('Start year capacity (MW)'!$B$3:$B$22,'Start year capacity (MW)'!$G$3:$G$22,A2)</f>
         <v>26489</v>
       </c>
       <c r="EB2">
@@ -22185,7 +22245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:211" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:211" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>317</v>
       </c>
@@ -22544,8 +22604,8 @@
         <v>0</v>
       </c>
       <c r="DP3" s="27">
-        <f>'Start year capacity (MW)'!C4+'Start year capacity (MW)'!D4</f>
-        <v>104643</v>
+        <f>SUMIFS('Start year capacity (MW)'!$C$3:$C$22,'Start year capacity (MW)'!$G$3:$G$22,A3)+SUMIFS('Start year capacity (MW)'!$D$3:$D$22,'Start year capacity (MW)'!$G$3:$G$22,$A3)</f>
+        <v>1843.1221289052428</v>
       </c>
       <c r="DQ3">
         <v>0</v>
@@ -22578,8 +22638,8 @@
         <v>0</v>
       </c>
       <c r="EA3" s="27">
-        <f>'Start year capacity (MW)'!$B4</f>
-        <v>0</v>
+        <f>SUMIFS('Start year capacity (MW)'!$B$3:$B$22,'Start year capacity (MW)'!$G$3:$G$22,A3)</f>
+        <v>5587</v>
       </c>
       <c r="EB3">
         <f>'Start year capacity (MW)'!$E4</f>
@@ -22902,7 +22962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:211" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:211" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>82</v>
       </c>
@@ -23261,8 +23321,8 @@
         <v>0</v>
       </c>
       <c r="DP4" s="27">
-        <f>'Start year capacity (MW)'!C5+'Start year capacity (MW)'!D5</f>
-        <v>108828</v>
+        <f>SUMIFS('Start year capacity (MW)'!$C$3:$C$22,'Start year capacity (MW)'!$G$3:$G$22,A4)+SUMIFS('Start year capacity (MW)'!$D$3:$D$22,'Start year capacity (MW)'!$G$3:$G$22,$A4)</f>
+        <v>39622.672191949503</v>
       </c>
       <c r="DQ4">
         <v>0</v>
@@ -23295,8 +23355,8 @@
         <v>0</v>
       </c>
       <c r="EA4" s="27">
-        <f>'Start year capacity (MW)'!$B5</f>
-        <v>0</v>
+        <f>SUMIFS('Start year capacity (MW)'!$B$3:$B$22,'Start year capacity (MW)'!$G$3:$G$22,A4)</f>
+        <v>120107</v>
       </c>
       <c r="EB4">
         <f>'Start year capacity (MW)'!$E5</f>
@@ -23619,7 +23679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:211" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:211" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>318</v>
       </c>
@@ -23978,8 +24038,8 @@
         <v>0</v>
       </c>
       <c r="DP5" s="27">
-        <f>'Start year capacity (MW)'!C6+'Start year capacity (MW)'!D6</f>
-        <v>173233</v>
+        <f>SUMIFS('Start year capacity (MW)'!$C$3:$C$22,'Start year capacity (MW)'!$G$3:$G$22,A5)+SUMIFS('Start year capacity (MW)'!$D$3:$D$22,'Start year capacity (MW)'!$G$3:$G$22,$A5)</f>
+        <v>104643</v>
       </c>
       <c r="DQ5">
         <v>0</v>
@@ -24012,7 +24072,7 @@
         <v>0</v>
       </c>
       <c r="EA5" s="27">
-        <f>'Start year capacity (MW)'!$B6</f>
+        <f>SUMIFS('Start year capacity (MW)'!$B$3:$B$22,'Start year capacity (MW)'!$G$3:$G$22,A5)</f>
         <v>0</v>
       </c>
       <c r="EB5">
@@ -24336,9 +24396,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:211" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:211" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>323</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -24695,8 +24755,8 @@
         <v>0</v>
       </c>
       <c r="DP6" s="27">
-        <f>'Start year capacity (MW)'!C8+'Start year capacity (MW)'!D8</f>
-        <v>21045</v>
+        <f>SUMIFS('Start year capacity (MW)'!$C$3:$C$22,'Start year capacity (MW)'!$G$3:$G$22,A6)+SUMIFS('Start year capacity (MW)'!$D$3:$D$22,'Start year capacity (MW)'!$G$3:$G$22,$A6)</f>
+        <v>108828</v>
       </c>
       <c r="DQ6">
         <v>0</v>
@@ -24729,7 +24789,7 @@
         <v>0</v>
       </c>
       <c r="EA6" s="27">
-        <f>'Start year capacity (MW)'!$B8</f>
+        <f>SUMIFS('Start year capacity (MW)'!$B$3:$B$22,'Start year capacity (MW)'!$G$3:$G$22,A6)</f>
         <v>0</v>
       </c>
       <c r="EB6">
@@ -25053,7 +25113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:211" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:211" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -25412,8 +25472,8 @@
         <v>0</v>
       </c>
       <c r="DP7" s="27">
-        <f>'Start year capacity (MW)'!C9+'Start year capacity (MW)'!D9</f>
-        <v>944</v>
+        <f>SUMIFS('Start year capacity (MW)'!$C$3:$C$22,'Start year capacity (MW)'!$G$3:$G$22,A7)+SUMIFS('Start year capacity (MW)'!$D$3:$D$22,'Start year capacity (MW)'!$G$3:$G$22,$A7)</f>
+        <v>173233</v>
       </c>
       <c r="DQ7">
         <v>0</v>
@@ -25446,7 +25506,7 @@
         <v>0</v>
       </c>
       <c r="EA7" s="27">
-        <f>'Start year capacity (MW)'!$B9</f>
+        <f>SUMIFS('Start year capacity (MW)'!$B$3:$B$22,'Start year capacity (MW)'!$G$3:$G$22,A7)</f>
         <v>0</v>
       </c>
       <c r="EB7">
@@ -25770,7 +25830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:211" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:211" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>319</v>
       </c>
@@ -26129,8 +26189,8 @@
         <v>0</v>
       </c>
       <c r="DP8" s="27">
-        <f>'Start year capacity (MW)'!C10+'Start year capacity (MW)'!D10</f>
-        <v>27786</v>
+        <f>SUMIFS('Start year capacity (MW)'!$C$3:$C$22,'Start year capacity (MW)'!$G$3:$G$22,A8)+SUMIFS('Start year capacity (MW)'!$D$3:$D$22,'Start year capacity (MW)'!$G$3:$G$22,$A8)</f>
+        <v>55200.36</v>
       </c>
       <c r="DQ8">
         <v>0</v>
@@ -26163,8 +26223,8 @@
         <v>0</v>
       </c>
       <c r="EA8" s="27">
-        <f>'Start year capacity (MW)'!$B10</f>
-        <v>19424</v>
+        <f>SUMIFS('Start year capacity (MW)'!$B$3:$B$22,'Start year capacity (MW)'!$G$3:$G$22,A8)</f>
+        <v>0</v>
       </c>
       <c r="EB8">
         <f>'Start year capacity (MW)'!$E10</f>
@@ -26487,7 +26547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:211" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:211" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -26846,8 +26906,8 @@
         <v>0</v>
       </c>
       <c r="DP9" s="27">
-        <f>'Start year capacity (MW)'!C11+'Start year capacity (MW)'!D11</f>
-        <v>15137</v>
+        <f>SUMIFS('Start year capacity (MW)'!$C$3:$C$22,'Start year capacity (MW)'!$G$3:$G$22,A9)+SUMIFS('Start year capacity (MW)'!$D$3:$D$22,'Start year capacity (MW)'!$G$3:$G$22,$A9)</f>
+        <v>2321</v>
       </c>
       <c r="DQ9">
         <v>0</v>
@@ -26880,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="EA9" s="27">
-        <f>'Start year capacity (MW)'!$B11</f>
+        <f>SUMIFS('Start year capacity (MW)'!$B$3:$B$22,'Start year capacity (MW)'!$G$3:$G$22,A9)</f>
         <v>0</v>
       </c>
       <c r="EB9">
@@ -27204,7 +27264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:211" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:211" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -27563,8 +27623,8 @@
         <v>0</v>
       </c>
       <c r="DP10" s="27">
-        <f>'Start year capacity (MW)'!C12+'Start year capacity (MW)'!D12</f>
-        <v>16954</v>
+        <f>SUMIFS('Start year capacity (MW)'!$C$3:$C$22,'Start year capacity (MW)'!$G$3:$G$22,A10)+SUMIFS('Start year capacity (MW)'!$D$3:$D$22,'Start year capacity (MW)'!$G$3:$G$22,$A10)</f>
+        <v>21045</v>
       </c>
       <c r="DQ10">
         <v>0</v>
@@ -27597,7 +27657,7 @@
         <v>0</v>
       </c>
       <c r="EA10" s="27">
-        <f>'Start year capacity (MW)'!$B12</f>
+        <f>SUMIFS('Start year capacity (MW)'!$B$3:$B$22,'Start year capacity (MW)'!$G$3:$G$22,A10)</f>
         <v>0</v>
       </c>
       <c r="EB10">
@@ -27921,7 +27981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:211" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:211" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -28280,8 +28340,8 @@
         <v>0</v>
       </c>
       <c r="DP11" s="27">
-        <f>'Start year capacity (MW)'!C13+'Start year capacity (MW)'!D13</f>
-        <v>4346</v>
+        <f>SUMIFS('Start year capacity (MW)'!$C$3:$C$22,'Start year capacity (MW)'!$G$3:$G$22,A11)+SUMIFS('Start year capacity (MW)'!$D$3:$D$22,'Start year capacity (MW)'!$G$3:$G$22,$A11)</f>
+        <v>944</v>
       </c>
       <c r="DQ11">
         <v>0</v>
@@ -28314,7 +28374,7 @@
         <v>0</v>
       </c>
       <c r="EA11" s="27">
-        <f>'Start year capacity (MW)'!$B13</f>
+        <f>SUMIFS('Start year capacity (MW)'!$B$3:$B$22,'Start year capacity (MW)'!$G$3:$G$22,A11)</f>
         <v>0</v>
       </c>
       <c r="EB11">
@@ -28638,7 +28698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:211" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:211" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>85</v>
       </c>
@@ -28997,8 +29057,8 @@
         <v>0</v>
       </c>
       <c r="DP12" s="27">
-        <f>'Start year capacity (MW)'!C15+'Start year capacity (MW)'!D15</f>
-        <v>39622.672191949503</v>
+        <f>SUMIFS('Start year capacity (MW)'!$C$3:$C$22,'Start year capacity (MW)'!$G$3:$G$22,A12)+SUMIFS('Start year capacity (MW)'!$D$3:$D$22,'Start year capacity (MW)'!$G$3:$G$22,$A12)</f>
+        <v>0</v>
       </c>
       <c r="DQ12">
         <v>0</v>
@@ -29031,8 +29091,8 @@
         <v>0</v>
       </c>
       <c r="EA12" s="27">
-        <f>'Start year capacity (MW)'!$B15</f>
-        <v>120107</v>
+        <f>SUMIFS('Start year capacity (MW)'!$B$3:$B$22,'Start year capacity (MW)'!$G$3:$G$22,A12)</f>
+        <v>0</v>
       </c>
       <c r="EB12">
         <f>'Start year capacity (MW)'!$E15</f>
@@ -29355,7 +29415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:211" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:211" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>320</v>
       </c>
@@ -29714,8 +29774,8 @@
         <v>0</v>
       </c>
       <c r="DP13" s="27">
-        <f>'Start year capacity (MW)'!C16+'Start year capacity (MW)'!D16</f>
-        <v>1843.1221289052428</v>
+        <f>SUMIFS('Start year capacity (MW)'!$C$3:$C$22,'Start year capacity (MW)'!$G$3:$G$22,A13)+SUMIFS('Start year capacity (MW)'!$D$3:$D$22,'Start year capacity (MW)'!$G$3:$G$22,$A13)</f>
+        <v>0</v>
       </c>
       <c r="DQ13">
         <v>0</v>
@@ -29748,8 +29808,8 @@
         <v>0</v>
       </c>
       <c r="EA13" s="27">
-        <f>'Start year capacity (MW)'!$B16</f>
-        <v>5587</v>
+        <f>SUMIFS('Start year capacity (MW)'!$B$3:$B$22,'Start year capacity (MW)'!$G$3:$G$22,A13)</f>
+        <v>0</v>
       </c>
       <c r="EB13">
         <f>'Start year capacity (MW)'!$E16</f>
@@ -30072,7 +30132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:211" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:211" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -30431,8 +30491,8 @@
         <v>0</v>
       </c>
       <c r="DP14" s="27">
-        <f>'Start year capacity (MW)'!C20+'Start year capacity (MW)'!D20</f>
-        <v>2321</v>
+        <f>SUMIFS('Start year capacity (MW)'!$C$3:$C$22,'Start year capacity (MW)'!$G$3:$G$22,A14)+SUMIFS('Start year capacity (MW)'!$D$3:$D$22,'Start year capacity (MW)'!$G$3:$G$22,$A14)</f>
+        <v>27786</v>
       </c>
       <c r="DQ14">
         <v>0</v>
@@ -30465,8 +30525,8 @@
         <v>0</v>
       </c>
       <c r="EA14" s="27">
-        <f>'Start year capacity (MW)'!$B20</f>
-        <v>0</v>
+        <f>SUMIFS('Start year capacity (MW)'!$B$3:$B$22,'Start year capacity (MW)'!$G$3:$G$22,A14)</f>
+        <v>19424</v>
       </c>
       <c r="EB14">
         <f>'Start year capacity (MW)'!$E20</f>
@@ -30789,7 +30849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:211" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:211" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -31148,8 +31208,8 @@
         <v>0</v>
       </c>
       <c r="DP15" s="27">
-        <f>'Start year capacity (MW)'!C21+'Start year capacity (MW)'!D21</f>
-        <v>55200.36</v>
+        <f>SUMIFS('Start year capacity (MW)'!$C$3:$C$22,'Start year capacity (MW)'!$G$3:$G$22,A15)+SUMIFS('Start year capacity (MW)'!$D$3:$D$22,'Start year capacity (MW)'!$G$3:$G$22,$A15)</f>
+        <v>15137</v>
       </c>
       <c r="DQ15">
         <v>0</v>
@@ -31182,7 +31242,7 @@
         <v>0</v>
       </c>
       <c r="EA15" s="27">
-        <f>'Start year capacity (MW)'!$B21</f>
+        <f>SUMIFS('Start year capacity (MW)'!$B$3:$B$22,'Start year capacity (MW)'!$G$3:$G$22,A15)</f>
         <v>0</v>
       </c>
       <c r="EB15">
@@ -31506,7 +31566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:211" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:211" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -31865,7 +31925,7 @@
         <v>0</v>
       </c>
       <c r="DP16" s="27">
-        <f>'Start year capacity (MW)'!C17+'Start year capacity (MW)'!D17</f>
+        <f>SUMIFS('Start year capacity (MW)'!$C$3:$C$22,'Start year capacity (MW)'!$G$3:$G$22,A16)+SUMIFS('Start year capacity (MW)'!$D$3:$D$22,'Start year capacity (MW)'!$G$3:$G$22,$A16)</f>
         <v>3274.2056791452524</v>
       </c>
       <c r="DQ16">
@@ -31899,8 +31959,8 @@
         <v>0</v>
       </c>
       <c r="EA16" s="27">
-        <f>'Start year capacity (MW)'!DZ17</f>
-        <v>0</v>
+        <f>SUMIFS('Start year capacity (MW)'!$B$3:$B$22,'Start year capacity (MW)'!$G$3:$G$22,A16)</f>
+        <v>9925</v>
       </c>
       <c r="EB16" s="27">
         <v>0</v>
@@ -32143,7 +32203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:211" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:211" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>86</v>
       </c>
@@ -32502,6 +32562,7 @@
         <v>0</v>
       </c>
       <c r="DP17" s="27">
+        <f>SUMIFS('Start year capacity (MW)'!$C$3:$C$22,'Start year capacity (MW)'!$G$3:$G$22,A17)+SUMIFS('Start year capacity (MW)'!$D$3:$D$22,'Start year capacity (MW)'!$G$3:$G$22,$A17)</f>
         <v>0</v>
       </c>
       <c r="DQ17">
@@ -32535,6 +32596,7 @@
         <v>0</v>
       </c>
       <c r="EA17" s="27">
+        <f>SUMIFS('Start year capacity (MW)'!$B$3:$B$22,'Start year capacity (MW)'!$G$3:$G$22,A17)</f>
         <v>0</v>
       </c>
       <c r="EB17" s="27">
@@ -32778,7 +32840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:211" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:211" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -33137,7 +33199,8 @@
         <v>0</v>
       </c>
       <c r="DP18" s="27">
-        <v>0</v>
+        <f>SUMIFS('Start year capacity (MW)'!$C$3:$C$22,'Start year capacity (MW)'!$G$3:$G$22,A18)+SUMIFS('Start year capacity (MW)'!$D$3:$D$22,'Start year capacity (MW)'!$G$3:$G$22,$A18)</f>
+        <v>4346</v>
       </c>
       <c r="DQ18">
         <v>0</v>
@@ -33170,6 +33233,7 @@
         <v>0</v>
       </c>
       <c r="EA18" s="27">
+        <f>SUMIFS('Start year capacity (MW)'!$B$3:$B$22,'Start year capacity (MW)'!$G$3:$G$22,A18)</f>
         <v>0</v>
       </c>
       <c r="EB18" s="27">
@@ -33413,7 +33477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:211" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:211" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>87</v>
       </c>
@@ -33772,6 +33836,7 @@
         <v>0</v>
       </c>
       <c r="DP19" s="27">
+        <f>SUMIFS('Start year capacity (MW)'!$C$3:$C$22,'Start year capacity (MW)'!$G$3:$G$22,A19)+SUMIFS('Start year capacity (MW)'!$D$3:$D$22,'Start year capacity (MW)'!$G$3:$G$22,$A19)</f>
         <v>0</v>
       </c>
       <c r="DQ19">
@@ -33805,6 +33870,7 @@
         <v>0</v>
       </c>
       <c r="EA19" s="27">
+        <f>SUMIFS('Start year capacity (MW)'!$B$3:$B$22,'Start year capacity (MW)'!$G$3:$G$22,A19)</f>
         <v>0</v>
       </c>
       <c r="EB19" s="27">
@@ -34048,7 +34114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:211" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:211" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>88</v>
       </c>
@@ -34407,6 +34473,7 @@
         <v>0</v>
       </c>
       <c r="DP20" s="27">
+        <f>SUMIFS('Start year capacity (MW)'!$C$3:$C$22,'Start year capacity (MW)'!$G$3:$G$22,A20)+SUMIFS('Start year capacity (MW)'!$D$3:$D$22,'Start year capacity (MW)'!$G$3:$G$22,$A20)</f>
         <v>0</v>
       </c>
       <c r="DQ20">
@@ -34440,6 +34507,7 @@
         <v>0</v>
       </c>
       <c r="EA20" s="27">
+        <f>SUMIFS('Start year capacity (MW)'!$B$3:$B$22,'Start year capacity (MW)'!$G$3:$G$22,A20)</f>
         <v>0</v>
       </c>
       <c r="EB20" s="27">
@@ -34683,7 +34751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:211" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:211" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>89</v>
       </c>
@@ -35042,6 +35110,7 @@
         <v>0</v>
       </c>
       <c r="DP21" s="27">
+        <f>SUMIFS('Start year capacity (MW)'!$C$3:$C$22,'Start year capacity (MW)'!$G$3:$G$22,A21)+SUMIFS('Start year capacity (MW)'!$D$3:$D$22,'Start year capacity (MW)'!$G$3:$G$22,$A21)</f>
         <v>0</v>
       </c>
       <c r="DQ21">
@@ -35075,6 +35144,7 @@
         <v>0</v>
       </c>
       <c r="EA21" s="27">
+        <f>SUMIFS('Start year capacity (MW)'!$B$3:$B$22,'Start year capacity (MW)'!$G$3:$G$22,A21)</f>
         <v>0</v>
       </c>
       <c r="EB21" s="27">
@@ -35318,7 +35388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:211" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:211" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>90</v>
       </c>
@@ -35677,6 +35747,7 @@
         <v>0</v>
       </c>
       <c r="DP22" s="27">
+        <f>SUMIFS('Start year capacity (MW)'!$C$3:$C$22,'Start year capacity (MW)'!$G$3:$G$22,A22)+SUMIFS('Start year capacity (MW)'!$D$3:$D$22,'Start year capacity (MW)'!$G$3:$G$22,$A22)</f>
         <v>0</v>
       </c>
       <c r="DQ22">
@@ -35710,6 +35781,7 @@
         <v>0</v>
       </c>
       <c r="EA22" s="27">
+        <f>SUMIFS('Start year capacity (MW)'!$B$3:$B$22,'Start year capacity (MW)'!$G$3:$G$22,A22)</f>
         <v>0</v>
       </c>
       <c r="EB22" s="27">
@@ -35953,7 +36025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:211" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:211" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>91</v>
       </c>
@@ -36312,6 +36384,7 @@
         <v>0</v>
       </c>
       <c r="DP23" s="27">
+        <f>SUMIFS('Start year capacity (MW)'!$C$3:$C$22,'Start year capacity (MW)'!$G$3:$G$22,A23)+SUMIFS('Start year capacity (MW)'!$D$3:$D$22,'Start year capacity (MW)'!$G$3:$G$22,$A23)</f>
         <v>0</v>
       </c>
       <c r="DQ23">
@@ -36345,6 +36418,7 @@
         <v>0</v>
       </c>
       <c r="EA23" s="27">
+        <f>SUMIFS('Start year capacity (MW)'!$B$3:$B$22,'Start year capacity (MW)'!$G$3:$G$22,A23)</f>
         <v>0</v>
       </c>
       <c r="EB23" s="27">
@@ -36588,7 +36662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:211" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:211" x14ac:dyDescent="0.25">
       <c r="A24" s="77" t="s">
         <v>93</v>
       </c>
@@ -36947,6 +37021,7 @@
         <v>0</v>
       </c>
       <c r="DP24" s="27">
+        <f>SUMIFS('Start year capacity (MW)'!$C$3:$C$22,'Start year capacity (MW)'!$G$3:$G$22,A24)+SUMIFS('Start year capacity (MW)'!$D$3:$D$22,'Start year capacity (MW)'!$G$3:$G$22,$A24)</f>
         <v>0</v>
       </c>
       <c r="DQ24">
@@ -36980,6 +37055,7 @@
         <v>0</v>
       </c>
       <c r="EA24" s="27">
+        <f>SUMIFS('Start year capacity (MW)'!$B$3:$B$22,'Start year capacity (MW)'!$G$3:$G$22,A24)</f>
         <v>0</v>
       </c>
       <c r="EB24" s="27">
@@ -37223,7 +37299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:211" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:211" x14ac:dyDescent="0.25">
       <c r="A25" s="77" t="s">
         <v>95</v>
       </c>
@@ -37582,6 +37658,7 @@
         <v>0</v>
       </c>
       <c r="DP25" s="27">
+        <f>SUMIFS('Start year capacity (MW)'!$C$3:$C$22,'Start year capacity (MW)'!$G$3:$G$22,A25)+SUMIFS('Start year capacity (MW)'!$D$3:$D$22,'Start year capacity (MW)'!$G$3:$G$22,$A25)</f>
         <v>0</v>
       </c>
       <c r="DQ25">
@@ -37615,6 +37692,7 @@
         <v>0</v>
       </c>
       <c r="EA25" s="27">
+        <f>SUMIFS('Start year capacity (MW)'!$B$3:$B$22,'Start year capacity (MW)'!$G$3:$G$22,A25)</f>
         <v>0</v>
       </c>
       <c r="EB25" s="27">
@@ -37873,6 +37951,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A08BDF573E2FFD46A5F05DED9AF68025" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f85c0eb68479ad8b8987805fd5b8836b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="00484652-42e1-479e-92f4-fb0efddcdf60" xmlns:ns3="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f7dbc72841229da9eaa30ebb1456cd70" ns2:_="" ns3:_="">
     <xsd:import namespace="00484652-42e1-479e-92f4-fb0efddcdf60"/>
@@ -38095,17 +38184,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE53B774-577E-4215-97DA-2991DC7CFD5B}">
   <ds:schemaRefs>
@@ -38115,6 +38193,17 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65D5533F-31BC-4F03-AAAA-A9D02BE279DF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="00484652-42e1-479e-92f4-fb0efddcdf60"/>
+    <ds:schemaRef ds:uri="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62BCA187-4C93-42D0-A2D6-6C2E53429CBC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -38131,15 +38220,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65D5533F-31BC-4F03-AAAA-A9D02BE279DF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="00484652-42e1-479e-92f4-fb0efddcdf60"/>
-    <ds:schemaRef ds:uri="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/InputData/elec/BHRaSYC/BAU Heat Rates and Start Year Capacities.xlsx
+++ b/InputData/elec/BHRaSYC/BAU Heat Rates and Start Year Capacities.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robbie\Dropbox (Energy Innovation)\My Documents\Energy Policy Solutions\European Union\Models\eps-eu\InputData\elec\BHRaSYC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCF1EA90-00A1-4060-AE84-DC8C134A4978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F40CC1E-CC0A-43E5-A8D3-F18CD71CC888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="38580" windowHeight="21180" activeTab="8" xr2:uid="{58905A94-BA09-4443-B274-BF752AC962AF}"/>
+    <workbookView xWindow="20" yWindow="20" windowWidth="23020" windowHeight="13660" firstSheet="4" activeTab="8" xr2:uid="{58905A94-BA09-4443-B274-BF752AC962AF}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="13" r:id="rId1"/>
@@ -1375,7 +1375,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1511,7 +1511,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1946,7 +1945,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CFC2982-FB57-4BE3-868F-A03FA08A5FBE}">
   <dimension ref="B11:D38"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -3032,7 +3031,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21:F22"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3062,7 +3061,7 @@
       <c r="F2" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="G2" s="99" t="s">
+      <c r="G2" s="17" t="s">
         <v>322</v>
       </c>
     </row>
@@ -3435,7 +3434,7 @@
         <v>7430.1221289052428</v>
       </c>
       <c r="G16" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -3462,7 +3461,7 @@
         <v>13199.205679145252</v>
       </c>
       <c r="G17" t="s">
-        <v>38</v>
+        <v>317</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -20882,9 +20881,9 @@
   <dimension ref="A1:HC25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="DD1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="GQ1" activePane="topRight" state="frozen"/>
       <selection activeCell="B25" sqref="B25:HC25"/>
-      <selection pane="topRight" activeCell="DP40" sqref="DP40"/>
+      <selection pane="topRight" activeCell="B13" sqref="B13:HC13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22605,7 +22604,7 @@
       </c>
       <c r="DP3" s="27">
         <f>SUMIFS('Start year capacity (MW)'!$C$3:$C$22,'Start year capacity (MW)'!$G$3:$G$22,A3)+SUMIFS('Start year capacity (MW)'!$D$3:$D$22,'Start year capacity (MW)'!$G$3:$G$22,$A3)</f>
-        <v>1843.1221289052428</v>
+        <v>3274.2056791452524</v>
       </c>
       <c r="DQ3">
         <v>0</v>
@@ -22639,7 +22638,7 @@
       </c>
       <c r="EA3" s="27">
         <f>SUMIFS('Start year capacity (MW)'!$B$3:$B$22,'Start year capacity (MW)'!$G$3:$G$22,A3)</f>
-        <v>5587</v>
+        <v>9925</v>
       </c>
       <c r="EB3">
         <f>'Start year capacity (MW)'!$E4</f>
@@ -29775,7 +29774,7 @@
       </c>
       <c r="DP13" s="27">
         <f>SUMIFS('Start year capacity (MW)'!$C$3:$C$22,'Start year capacity (MW)'!$G$3:$G$22,A13)+SUMIFS('Start year capacity (MW)'!$D$3:$D$22,'Start year capacity (MW)'!$G$3:$G$22,$A13)</f>
-        <v>0</v>
+        <v>1843.1221289052428</v>
       </c>
       <c r="DQ13">
         <v>0</v>
@@ -29809,7 +29808,7 @@
       </c>
       <c r="EA13" s="27">
         <f>SUMIFS('Start year capacity (MW)'!$B$3:$B$22,'Start year capacity (MW)'!$G$3:$G$22,A13)</f>
-        <v>0</v>
+        <v>5587</v>
       </c>
       <c r="EB13">
         <f>'Start year capacity (MW)'!$E16</f>
@@ -31926,7 +31925,7 @@
       </c>
       <c r="DP16" s="27">
         <f>SUMIFS('Start year capacity (MW)'!$C$3:$C$22,'Start year capacity (MW)'!$G$3:$G$22,A16)+SUMIFS('Start year capacity (MW)'!$D$3:$D$22,'Start year capacity (MW)'!$G$3:$G$22,$A16)</f>
-        <v>3274.2056791452524</v>
+        <v>0</v>
       </c>
       <c r="DQ16">
         <v>0</v>
@@ -31960,7 +31959,7 @@
       </c>
       <c r="EA16" s="27">
         <f>SUMIFS('Start year capacity (MW)'!$B$3:$B$22,'Start year capacity (MW)'!$G$3:$G$22,A16)</f>
-        <v>9925</v>
+        <v>0</v>
       </c>
       <c r="EB16" s="27">
         <v>0</v>
@@ -37942,26 +37941,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A08BDF573E2FFD46A5F05DED9AF68025" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f85c0eb68479ad8b8987805fd5b8836b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="00484652-42e1-479e-92f4-fb0efddcdf60" xmlns:ns3="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f7dbc72841229da9eaa30ebb1456cd70" ns2:_="" ns3:_="">
     <xsd:import namespace="00484652-42e1-479e-92f4-fb0efddcdf60"/>
@@ -38184,10 +38163,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE53B774-577E-4215-97DA-2991DC7CFD5B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62BCA187-4C93-42D0-A2D6-6C2E53429CBC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="00484652-42e1-479e-92f4-fb0efddcdf60"/>
+    <ds:schemaRef ds:uri="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -38204,20 +38214,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62BCA187-4C93-42D0-A2D6-6C2E53429CBC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE53B774-577E-4215-97DA-2991DC7CFD5B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="00484652-42e1-479e-92f4-fb0efddcdf60"/>
-    <ds:schemaRef ds:uri="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/InputData/elec/BHRaSYC/BAU Heat Rates and Start Year Capacities.xlsx
+++ b/InputData/elec/BHRaSYC/BAU Heat Rates and Start Year Capacities.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dobrien\Dropbox (Energy Innovation)\Desktop\Models\E.U. Models\eps-eu\InputData\elec\BHRaSYC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DBF4559-BAB6-4CD5-B08A-C96396AB856F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB8687AB-7D38-4378-BA0B-D970EAA880BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5385" yWindow="915" windowWidth="22185" windowHeight="13185" firstSheet="6" activeTab="9" xr2:uid="{58905A94-BA09-4443-B274-BF752AC962AF}"/>
+    <workbookView xWindow="9330" yWindow="2535" windowWidth="18600" windowHeight="12270" firstSheet="7" activeTab="9" xr2:uid="{58905A94-BA09-4443-B274-BF752AC962AF}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="13" r:id="rId1"/>
@@ -1286,17 +1286,20 @@
     <font>
       <sz val="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="21">
@@ -2363,7 +2366,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="DP1" activePane="topRight" state="frozen"/>
       <selection activeCell="B25" sqref="B25:HC25"/>
-      <selection pane="topRight" activeCell="DO14" sqref="DO14"/>
+      <selection pane="topRight" activeCell="DP12" sqref="DP12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10537,7 +10540,7 @@
       </c>
       <c r="DP12" s="27">
         <f>SUMIFS('Start year capacity (MW)'!$C$3:$C$22,'Start year capacity (MW)'!$G$3:$G$22,A12)+SUMIFS('Start year capacity (MW)'!$D$3:$D$22,'Start year capacity (MW)'!$G$3:$G$22,$A12)</f>
-        <v>0</v>
+        <v>16954</v>
       </c>
       <c r="DQ12">
         <v>0</v>
@@ -13405,7 +13408,7 @@
       </c>
       <c r="DP16" s="27">
         <f>SUMIFS('Start year capacity (MW)'!$C$3:$C$22,'Start year capacity (MW)'!$G$3:$G$22,A16)+SUMIFS('Start year capacity (MW)'!$D$3:$D$22,'Start year capacity (MW)'!$G$3:$G$22,$A16)</f>
-        <v>16954</v>
+        <v>0</v>
       </c>
       <c r="DQ16">
         <v>0</v>
@@ -20632,8 +20635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E9C7F64-E096-4DBD-8D74-31E552F7DAA9}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20931,7 +20934,7 @@
         <v>16954</v>
       </c>
       <c r="G12" t="s">
-        <v>38</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -21655,7 +21658,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:A27"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22107,8 +22110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFA5266E-98CA-4D90-9DC7-8702BD66BCEE}">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22564,10 +22567,10 @@
   </sheetPr>
   <dimension ref="A1:HC25"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="DP1" activePane="topRight" state="frozen"/>
       <selection activeCell="B25" sqref="B25:HC25"/>
-      <selection pane="topRight" activeCell="DS43" sqref="DS43"/>
+      <selection pane="topRight" activeCell="DP12" sqref="DP12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38487,15 +38490,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A08BDF573E2FFD46A5F05DED9AF68025" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f85c0eb68479ad8b8987805fd5b8836b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="00484652-42e1-479e-92f4-fb0efddcdf60" xmlns:ns3="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f7dbc72841229da9eaa30ebb1456cd70" ns2:_="" ns3:_="">
     <xsd:import namespace="00484652-42e1-479e-92f4-fb0efddcdf60"/>
@@ -38718,6 +38712,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65D5533F-31BC-4F03-AAAA-A9D02BE279DF}">
   <ds:schemaRefs>
@@ -38730,14 +38733,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE53B774-577E-4215-97DA-2991DC7CFD5B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62BCA187-4C93-42D0-A2D6-6C2E53429CBC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -38754,4 +38749,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE53B774-577E-4215-97DA-2991DC7CFD5B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/InputData/elec/BHRaSYC/BAU Heat Rates and Start Year Capacities.xlsx
+++ b/InputData/elec/BHRaSYC/BAU Heat Rates and Start Year Capacities.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dobrien\Dropbox (Energy Innovation)\Desktop\Models\E.U. Models\eps-eu\InputData\elec\BHRaSYC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Modeling\EPS\EU\eps-eu\InputData\elec\BHRaSYC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB8687AB-7D38-4378-BA0B-D970EAA880BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{961D91A4-3704-4210-BBB6-EA37A4E99331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9330" yWindow="2535" windowWidth="18600" windowHeight="12270" firstSheet="7" activeTab="9" xr2:uid="{58905A94-BA09-4443-B274-BF752AC962AF}"/>
+    <workbookView xWindow="28875" yWindow="4155" windowWidth="19470" windowHeight="11115" tabRatio="795" firstSheet="3" activeTab="9" xr2:uid="{58905A94-BA09-4443-B274-BF752AC962AF}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="13" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="366">
   <si>
     <t>BHRaSYC - BAU Heat Rate and Start Year Capacity</t>
   </si>
@@ -1172,6 +1172,9 @@
   <si>
     <t>Eurostat</t>
   </si>
+  <si>
+    <t>calibrated to 2022 data in calibration sheet</t>
+  </si>
 </sst>
 </file>
 
@@ -1302,7 +1305,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="21">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1416,6 +1419,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF6F6F6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1566,7 +1575,7 @@
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1734,6 +1743,9 @@
     <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2173,22 +2185,22 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="10.85546875" style="44"/>
-    <col min="3" max="3" width="45.28515625" style="44" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.85546875" style="44"/>
+    <col min="1" max="2" width="10.81640625" style="44"/>
+    <col min="3" max="3" width="45.26953125" style="44" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.81640625" style="44"/>
   </cols>
   <sheetData>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B11" s="43" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B12" s="45"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B13" s="45" t="s">
         <v>1</v>
       </c>
@@ -2199,7 +2211,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B14" s="45"/>
       <c r="C14" s="45" t="s">
         <v>4</v>
@@ -2208,7 +2220,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B15" s="45"/>
       <c r="C15" s="45" t="s">
         <v>6</v>
@@ -2217,7 +2229,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C16" s="45" t="s">
         <v>8</v>
       </c>
@@ -2225,7 +2237,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C17" s="45" t="s">
         <v>10</v>
       </c>
@@ -2233,7 +2245,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C18" s="45" t="s">
         <v>12</v>
       </c>
@@ -2241,7 +2253,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C19" s="45" t="s">
         <v>14</v>
       </c>
@@ -2249,97 +2261,97 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C20" s="48"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B21" s="46" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B22" s="74" t="s">
         <v>17</v>
       </c>
       <c r="C22" s="47"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B23" s="74" t="s">
         <v>18</v>
       </c>
       <c r="C23" s="47"/>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B24" s="74" t="s">
         <v>19</v>
       </c>
       <c r="C24" s="47"/>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B25" s="74" t="s">
         <v>20</v>
       </c>
       <c r="C25" s="47"/>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B26" s="75" t="s">
         <v>21</v>
       </c>
       <c r="C26" s="47"/>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B27" s="74"/>
       <c r="C27" s="47"/>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B28" s="47"/>
       <c r="C28" s="47"/>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B29" s="74" t="s">
         <v>22</v>
       </c>
       <c r="C29" s="74"/>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B30" s="74"/>
       <c r="C30" s="76" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B31" s="74"/>
       <c r="C31" s="76" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B32" s="74"/>
       <c r="C32" s="76" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B33" s="47"/>
       <c r="C33" s="47"/>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B34" s="47"/>
       <c r="C34" s="47"/>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B35" s="47"/>
       <c r="C35" s="47"/>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B36" s="47"/>
       <c r="C36" s="47"/>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B37" s="47"/>
       <c r="C37" s="47"/>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B38" s="47"/>
       <c r="C38" s="47"/>
     </row>
@@ -2363,19 +2375,19 @@
   </sheetPr>
   <dimension ref="A1:HC25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="DP1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="DM1" activePane="topRight" state="frozen"/>
       <selection activeCell="B25" sqref="B25:HC25"/>
-      <selection pane="topRight" activeCell="DP12" sqref="DP12"/>
+      <selection pane="topRight" activeCell="DP11" sqref="DP11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="36.28515625" customWidth="1"/>
-    <col min="2" max="211" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="36.26953125" customWidth="1"/>
+    <col min="2" max="211" width="13.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:211" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:211" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
         <v>321</v>
       </c>
@@ -3010,7 +3022,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="2" spans="1:211" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:211" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -3727,7 +3739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:211" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:211" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>317</v>
       </c>
@@ -4444,7 +4456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:211" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:211" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>82</v>
       </c>
@@ -5161,7 +5173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:211" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:211" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>318</v>
       </c>
@@ -5878,7 +5890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:211" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:211" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>323</v>
       </c>
@@ -6595,7 +6607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:211" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:211" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -7312,7 +7324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:211" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:211" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>319</v>
       </c>
@@ -8029,7 +8041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:211" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:211" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -8746,7 +8758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:211" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:211" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -9104,9 +9116,8 @@
       <c r="DO10">
         <v>0</v>
       </c>
-      <c r="DP10" s="27">
-        <f>SUMIFS('Start year capacity (MW)'!$C$3:$C$22,'Start year capacity (MW)'!$G$3:$G$22,A10)+SUMIFS('Start year capacity (MW)'!$D$3:$D$22,'Start year capacity (MW)'!$G$3:$G$22,$A10)</f>
-        <v>21045</v>
+      <c r="DP10" s="113">
+        <v>30230</v>
       </c>
       <c r="DQ10">
         <v>0</v>
@@ -9463,7 +9474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:211" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:211" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -10180,7 +10191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:211" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:211" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>85</v>
       </c>
@@ -10538,9 +10549,8 @@
       <c r="DO12">
         <v>0</v>
       </c>
-      <c r="DP12" s="27">
-        <f>SUMIFS('Start year capacity (MW)'!$C$3:$C$22,'Start year capacity (MW)'!$G$3:$G$22,A12)+SUMIFS('Start year capacity (MW)'!$D$3:$D$22,'Start year capacity (MW)'!$G$3:$G$22,$A12)</f>
-        <v>16954</v>
+      <c r="DP12" s="113">
+        <v>32408</v>
       </c>
       <c r="DQ12">
         <v>0</v>
@@ -10897,7 +10907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:211" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:211" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>320</v>
       </c>
@@ -11614,7 +11624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:211" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:211" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -12331,7 +12341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:211" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:211" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -13048,7 +13058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:211" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:211" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -13685,7 +13695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:211" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:211" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>86</v>
       </c>
@@ -14322,7 +14332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:211" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:211" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -14959,7 +14969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:211" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:211" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>87</v>
       </c>
@@ -15596,7 +15606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:211" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:211" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>88</v>
       </c>
@@ -16233,7 +16243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:211" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:211" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>89</v>
       </c>
@@ -16870,7 +16880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:211" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:211" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>90</v>
       </c>
@@ -17507,7 +17517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:211" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:211" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>91</v>
       </c>
@@ -18144,7 +18154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:211" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:211" x14ac:dyDescent="0.35">
       <c r="A24" s="77" t="s">
         <v>93</v>
       </c>
@@ -18781,7 +18791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:211" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:211" x14ac:dyDescent="0.35">
       <c r="A25" s="77" t="s">
         <v>95</v>
       </c>
@@ -19425,18 +19435,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4627C354-DDA9-459B-B28E-42CFC2029A22}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>26</v>
       </c>
@@ -19453,7 +19463,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -19470,7 +19480,7 @@
         <v>74886</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -19487,7 +19497,7 @@
         <v>104643</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -19505,7 +19515,7 @@
         <v>126958.739</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -19522,7 +19532,7 @@
         <v>173233</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -19539,7 +19549,7 @@
         <v>162354</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -19556,7 +19566,7 @@
         <v>2321</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -19573,7 +19583,7 @@
         <v>21045</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -19590,7 +19600,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -19607,7 +19617,7 @@
         <v>47210</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>37</v>
       </c>
@@ -19624,7 +19634,7 @@
         <v>15137</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -19637,11 +19647,11 @@
       <c r="D12" s="6">
         <v>21038.666666666668</v>
       </c>
-      <c r="E12" s="5">
-        <v>16954</v>
+      <c r="E12" s="111">
+        <v>25000</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -19658,7 +19668,7 @@
         <v>4346</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -19675,7 +19685,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -19692,7 +19702,7 @@
         <v>159729.6721919495</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>42</v>
       </c>
@@ -19709,7 +19719,7 @@
         <v>7430.1221289052428</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>43</v>
       </c>
@@ -19726,7 +19736,7 @@
         <v>13199.205679145252</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -19743,7 +19753,7 @@
         <v>180359</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>45</v>
       </c>
@@ -19760,7 +19770,7 @@
         <v>114216</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -19777,7 +19787,7 @@
         <v>41683</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="52" t="s">
         <v>47</v>
       </c>
@@ -19785,11 +19795,11 @@
         <v>31</v>
       </c>
       <c r="C21" s="53">
-        <f>C6*$B$37</f>
+        <f>C6*$B$38</f>
         <v>40229.82</v>
       </c>
       <c r="D21" s="53">
-        <f t="shared" ref="D21:E21" si="0">D6*$B$37</f>
+        <f t="shared" ref="D21:E21" si="0">D6*$B$38</f>
         <v>46450.8</v>
       </c>
       <c r="E21" s="53">
@@ -19797,7 +19807,7 @@
         <v>55200.36</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="58" t="s">
         <v>48</v>
       </c>
@@ -19805,11 +19815,11 @@
         <v>31</v>
       </c>
       <c r="C22" s="53">
-        <f>C6*$B$38</f>
+        <f>C6*$B$39</f>
         <v>78093.180000000008</v>
       </c>
       <c r="D22" s="53">
-        <f t="shared" ref="D22:E22" si="1">D6*$B$38</f>
+        <f t="shared" ref="D22:E22" si="1">D6*$B$39</f>
         <v>90169.2</v>
       </c>
       <c r="E22" s="53">
@@ -19817,85 +19827,90 @@
         <v>107153.64</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="54"/>
       <c r="C23" s="55"/>
       <c r="D23" s="55"/>
       <c r="E23" s="55"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="30" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="112" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="56" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="B32" s="57"/>
+      <c r="B33" s="57"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="50" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="50" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="17" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="B36">
+      <c r="B37">
         <v>2022</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
         <v>58</v>
       </c>
-      <c r="B37" s="51">
+      <c r="B38" s="51">
         <v>0.34</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
         <v>59</v>
       </c>
-      <c r="B38" s="51">
+      <c r="B39" s="51">
         <v>0.66</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A33" r:id="rId1" display="Source : Solar Power europe : Global Market Outlook 2023-2027, figure 21.1" xr:uid="{F125C04B-08F8-4C65-A324-3D5D743B4E3A}"/>
+    <hyperlink ref="A34" r:id="rId1" display="Source : Solar Power europe : Global Market Outlook 2023-2027, figure 21.1" xr:uid="{F125C04B-08F8-4C65-A324-3D5D743B4E3A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -19906,21 +19921,21 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.140625" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" customWidth="1"/>
-    <col min="6" max="6" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.1796875" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.453125" customWidth="1"/>
+    <col min="6" max="6" width="28.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="19" t="s">
         <v>60</v>
       </c>
@@ -19938,7 +19953,7 @@
       </c>
       <c r="F2" s="17"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="28" t="s">
         <v>27</v>
       </c>
@@ -19956,7 +19971,7 @@
         <v>53935</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="14" t="s">
         <v>28</v>
       </c>
@@ -19974,7 +19989,7 @@
         <v>101730</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="14" t="s">
         <v>29</v>
       </c>
@@ -19993,7 +20008,7 @@
         <v>139985</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="14" t="s">
         <v>30</v>
       </c>
@@ -20011,7 +20026,7 @@
         <v>162872</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="14" t="s">
         <v>65</v>
       </c>
@@ -20030,7 +20045,7 @@
         <v>136377</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="14" t="s">
         <v>34</v>
       </c>
@@ -20048,7 +20063,7 @@
         <v>12760</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="14" t="s">
         <v>35</v>
       </c>
@@ -20065,7 +20080,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="14" t="s">
         <v>36</v>
       </c>
@@ -20083,7 +20098,7 @@
         <v>46171</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="14" t="s">
         <v>37</v>
       </c>
@@ -20097,11 +20112,11 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <f t="shared" ref="E11:E12" si="1">B11+C11+D11</f>
+        <f t="shared" ref="E11" si="1">B11+C11+D11</f>
         <v>14535</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="14" t="s">
         <v>38</v>
       </c>
@@ -20115,11 +20130,11 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <f t="shared" si="1"/>
+        <f>B12+C12+D12</f>
         <v>23097</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="14" t="s">
         <v>39</v>
       </c>
@@ -20136,7 +20151,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="14" t="s">
         <v>40</v>
       </c>
@@ -20154,7 +20169,7 @@
         <v>10987</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="14" t="s">
         <v>41</v>
       </c>
@@ -20172,7 +20187,7 @@
         <v>120107</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="14" t="s">
         <v>42</v>
       </c>
@@ -20190,7 +20205,7 @@
         <v>5587</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="14" t="s">
         <v>43</v>
       </c>
@@ -20208,7 +20223,7 @@
         <v>9925</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="14" t="s">
         <v>44</v>
       </c>
@@ -20229,7 +20244,7 @@
         <v>135619</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="14" t="s">
         <v>32</v>
       </c>
@@ -20245,7 +20260,7 @@
       </c>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="14" t="s">
         <v>67</v>
       </c>
@@ -20260,7 +20275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="60" t="s">
         <v>47</v>
       </c>
@@ -20278,7 +20293,7 @@
         <v>41693</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="62" t="s">
         <v>48</v>
       </c>
@@ -20296,26 +20311,26 @@
         <v>92380</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="9"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
     </row>
   </sheetData>
@@ -20334,19 +20349,19 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="11.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.85546875" style="100" customWidth="1"/>
+    <col min="1" max="1" width="29.81640625" style="100" customWidth="1"/>
     <col min="2" max="3" width="10" style="100" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="100"/>
+    <col min="4" max="16384" width="9.1796875" style="100"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="99" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="99" t="s">
         <v>325</v>
       </c>
@@ -20354,7 +20369,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="99" t="s">
         <v>327</v>
       </c>
@@ -20362,8 +20377,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="101" t="s">
         <v>329</v>
       </c>
@@ -20371,7 +20385,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="101" t="s">
         <v>331</v>
       </c>
@@ -20379,7 +20393,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="101" t="s">
         <v>333</v>
       </c>
@@ -20387,7 +20401,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="101" t="s">
         <v>335</v>
       </c>
@@ -20395,7 +20409,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="101" t="s">
         <v>337</v>
       </c>
@@ -20403,8 +20417,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="102" t="s">
         <v>339</v>
       </c>
@@ -20415,7 +20428,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="104" t="s">
         <v>342</v>
       </c>
@@ -20426,7 +20439,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="106" t="s">
         <v>344</v>
       </c>
@@ -20437,7 +20450,7 @@
         <v>884325.67500000005</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="106" t="s">
         <v>345</v>
       </c>
@@ -20448,7 +20461,7 @@
         <v>325702.61800000002</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="106" t="s">
         <v>346</v>
       </c>
@@ -20459,7 +20472,7 @@
         <v>149613.179</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="106" t="s">
         <v>347</v>
       </c>
@@ -20470,7 +20483,7 @@
         <v>103687.709</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="106" t="s">
         <v>348</v>
       </c>
@@ -20481,7 +20494,7 @@
         <v>23271.03</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="106" t="s">
         <v>349</v>
       </c>
@@ -20492,7 +20505,7 @@
         <v>22654.44</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="106" t="s">
         <v>350</v>
       </c>
@@ -20503,7 +20516,7 @@
         <v>874.94</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="106" t="s">
         <v>351</v>
       </c>
@@ -20514,7 +20527,7 @@
         <v>186055.20199999999</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="106" t="s">
         <v>352</v>
       </c>
@@ -20525,7 +20538,7 @@
         <v>26835.149000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="106" t="s">
         <v>353</v>
       </c>
@@ -20536,7 +20549,7 @@
         <v>2470.3000000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="106" t="s">
         <v>354</v>
       </c>
@@ -20547,7 +20560,7 @@
         <v>2306.0129999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="106" t="s">
         <v>355</v>
       </c>
@@ -20558,7 +20571,7 @@
         <v>112962.333</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="106" t="s">
         <v>356</v>
       </c>
@@ -20569,7 +20582,7 @@
         <v>23535.956999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="106" t="s">
         <v>357</v>
       </c>
@@ -20580,7 +20593,7 @@
         <v>91547.933999999994</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="106" t="s">
         <v>358</v>
       </c>
@@ -20591,7 +20604,7 @@
         <v>215.988</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="106" t="s">
         <v>359</v>
       </c>
@@ -20602,7 +20615,7 @@
         <v>105111.59</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="106" t="s">
         <v>360</v>
       </c>
@@ -20613,12 +20626,12 @@
         <v>1490.8119999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="101" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="101" t="s">
         <v>362</v>
       </c>
@@ -20636,18 +20649,18 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="34.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="19" t="s">
         <v>70</v>
       </c>
@@ -20670,7 +20683,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="28" t="s">
         <v>27</v>
       </c>
@@ -20697,7 +20710,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="14" t="s">
         <v>28</v>
       </c>
@@ -20724,7 +20737,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="14" t="s">
         <v>29</v>
       </c>
@@ -20751,7 +20764,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="14" t="s">
         <v>30</v>
       </c>
@@ -20778,7 +20791,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="14" t="s">
         <v>65</v>
       </c>
@@ -20802,7 +20815,7 @@
         <v>162354</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="14" t="s">
         <v>34</v>
       </c>
@@ -20829,7 +20842,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="14" t="s">
         <v>35</v>
       </c>
@@ -20856,7 +20869,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="14" t="s">
         <v>36</v>
       </c>
@@ -20883,7 +20896,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="14" t="s">
         <v>37</v>
       </c>
@@ -20910,7 +20923,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="14" t="s">
         <v>38</v>
       </c>
@@ -20920,7 +20933,7 @@
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>16954</v>
+        <v>25000</v>
       </c>
       <c r="D12">
         <f>'Capacity GEXIT 2025'!D12</f>
@@ -20931,13 +20944,13 @@
       </c>
       <c r="F12" s="15">
         <f>'Raw Capacities 2019'!E12</f>
-        <v>16954</v>
+        <v>25000</v>
       </c>
       <c r="G12" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="14" t="s">
         <v>39</v>
       </c>
@@ -20964,7 +20977,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="14" t="s">
         <v>40</v>
       </c>
@@ -20988,7 +21001,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="14" t="s">
         <v>41</v>
       </c>
@@ -21015,7 +21028,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="14" t="s">
         <v>42</v>
       </c>
@@ -21042,7 +21055,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="14" t="s">
         <v>43</v>
       </c>
@@ -21069,7 +21082,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="14" t="s">
         <v>44</v>
       </c>
@@ -21093,7 +21106,7 @@
         <v>180359</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="14" t="s">
         <v>32</v>
       </c>
@@ -21117,7 +21130,7 @@
         <v>162354</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="14" t="s">
         <v>33</v>
       </c>
@@ -21144,7 +21157,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="60" t="s">
         <v>47</v>
       </c>
@@ -21170,7 +21183,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="62" t="s">
         <v>48</v>
       </c>
@@ -21193,24 +21206,24 @@
         <v>107153.64</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="17" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>73</v>
       </c>
       <c r="G25" s="77"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>74</v>
       </c>
       <c r="G26" s="77"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>75</v>
       </c>
@@ -21228,20 +21241,20 @@
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="40.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="40.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="11" t="s">
         <v>26</v>
       </c>
@@ -21258,7 +21271,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="28" t="s">
         <v>27</v>
       </c>
@@ -21273,7 +21286,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="14" t="s">
         <v>28</v>
       </c>
@@ -21293,7 +21306,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="38" t="s">
         <v>29</v>
       </c>
@@ -21302,7 +21315,7 @@
       <c r="D5" s="82"/>
       <c r="E5" s="18"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="38" t="s">
         <v>30</v>
       </c>
@@ -21311,7 +21324,7 @@
       <c r="D6" s="82"/>
       <c r="E6" s="18"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="38" t="s">
         <v>65</v>
       </c>
@@ -21320,7 +21333,7 @@
       <c r="D7" s="82"/>
       <c r="E7" s="18"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="14" t="s">
         <v>34</v>
       </c>
@@ -21336,7 +21349,7 @@
         <v>0.318</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="38" t="s">
         <v>35</v>
       </c>
@@ -21345,7 +21358,7 @@
       <c r="D9" s="82"/>
       <c r="E9" s="18"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="14" t="s">
         <v>36</v>
       </c>
@@ -21360,7 +21373,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="38" t="s">
         <v>37</v>
       </c>
@@ -21369,7 +21382,7 @@
       <c r="D11" s="82"/>
       <c r="E11" s="18"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="14" t="s">
         <v>38</v>
       </c>
@@ -21384,7 +21397,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="14" t="s">
         <v>39</v>
       </c>
@@ -21399,7 +21412,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="38" t="s">
         <v>40</v>
       </c>
@@ -21408,7 +21421,7 @@
       <c r="D14" s="82"/>
       <c r="E14" s="18"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="14" t="s">
         <v>82</v>
       </c>
@@ -21423,7 +21436,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="14" t="s">
         <v>83</v>
       </c>
@@ -21438,7 +21451,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="14" t="s">
         <v>84</v>
       </c>
@@ -21453,7 +21466,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="14" t="s">
         <v>44</v>
       </c>
@@ -21462,7 +21475,7 @@
       <c r="D18" s="82"/>
       <c r="E18" s="18"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="26" t="s">
         <v>85</v>
       </c>
@@ -21477,7 +21490,7 @@
         <v>0.3412</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="26" t="s">
         <v>86</v>
       </c>
@@ -21492,7 +21505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="26" t="s">
         <v>87</v>
       </c>
@@ -21507,7 +21520,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="26" t="s">
         <v>88</v>
       </c>
@@ -21522,7 +21535,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="26" t="s">
         <v>89</v>
       </c>
@@ -21537,7 +21550,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="26" t="s">
         <v>90</v>
       </c>
@@ -21552,7 +21565,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="26" t="s">
         <v>91</v>
       </c>
@@ -21570,7 +21583,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="85" t="s">
         <v>93</v>
       </c>
@@ -21588,7 +21601,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="86" t="s">
         <v>95</v>
       </c>
@@ -21603,42 +21616,42 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="31" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="30" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="33" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" s="34" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" s="35" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" s="41" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" s="78" t="s">
         <v>101</v>
       </c>
@@ -21658,16 +21671,16 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="A15" sqref="A3:A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="41.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="41.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="28" t="s">
         <v>76</v>
       </c>
@@ -21676,7 +21689,7 @@
       <c r="D1" s="24"/>
       <c r="E1" s="24"/>
     </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="19" t="s">
         <v>26</v>
       </c>
@@ -21693,7 +21706,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="28" t="s">
         <v>27</v>
       </c>
@@ -21711,7 +21724,7 @@
         <v>2.2727272727272729</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="14" t="s">
         <v>28</v>
       </c>
@@ -21732,7 +21745,7 @@
         <v>2.7027027027027026</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="14" t="s">
         <v>29</v>
       </c>
@@ -21741,7 +21754,7 @@
       <c r="D5" s="82"/>
       <c r="E5" s="18"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="14" t="s">
         <v>30</v>
       </c>
@@ -21750,7 +21763,7 @@
       <c r="D6" s="82"/>
       <c r="E6" s="18"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="14" t="s">
         <v>65</v>
       </c>
@@ -21759,7 +21772,7 @@
       <c r="D7" s="82"/>
       <c r="E7" s="18"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="14" t="s">
         <v>34</v>
       </c>
@@ -21777,7 +21790,7 @@
         <v>3.1446540880503142</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="14" t="s">
         <v>35</v>
       </c>
@@ -21786,7 +21799,7 @@
       <c r="D9" s="82"/>
       <c r="E9" s="18"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="14" t="s">
         <v>36</v>
       </c>
@@ -21804,7 +21817,7 @@
         <v>2.4390243902439024</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="14" t="s">
         <v>37</v>
       </c>
@@ -21813,7 +21826,7 @@
       <c r="D11" s="82"/>
       <c r="E11" s="18"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="14" t="s">
         <v>38</v>
       </c>
@@ -21831,7 +21844,7 @@
         <v>2.8571428571428572</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="14" t="s">
         <v>39</v>
       </c>
@@ -21849,7 +21862,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="14" t="s">
         <v>40</v>
       </c>
@@ -21858,7 +21871,7 @@
       <c r="D14" s="82"/>
       <c r="E14" s="18"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="14" t="s">
         <v>41</v>
       </c>
@@ -21876,7 +21889,7 @@
         <v>1.9230769230769229</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="14" t="s">
         <v>42</v>
       </c>
@@ -21894,7 +21907,7 @@
         <v>2.9411764705882351</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="14" t="s">
         <v>43</v>
       </c>
@@ -21912,7 +21925,7 @@
         <v>1.3333333333333333</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="14" t="s">
         <v>44</v>
       </c>
@@ -21930,7 +21943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="26" t="s">
         <v>85</v>
       </c>
@@ -21948,7 +21961,7 @@
         <v>2.9308323563892147</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="26" t="s">
         <v>86</v>
       </c>
@@ -21966,7 +21979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="26" t="s">
         <v>87</v>
       </c>
@@ -21984,7 +21997,7 @@
         <v>2.7027027027027026</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="26" t="s">
         <v>88</v>
       </c>
@@ -22002,7 +22015,7 @@
         <v>2.3255813953488373</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="26" t="s">
         <v>89</v>
       </c>
@@ -22020,7 +22033,7 @@
         <v>3.7037037037037033</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="26" t="s">
         <v>90</v>
       </c>
@@ -22038,7 +22051,7 @@
         <v>3.125</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="26" t="s">
         <v>91</v>
       </c>
@@ -22056,7 +22069,7 @@
         <v>3.0303030303030303</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="85" t="s">
         <v>93</v>
       </c>
@@ -22074,7 +22087,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="86" t="s">
         <v>95</v>
       </c>
@@ -22092,13 +22105,13 @@
         <v>1.9230769230769229</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
     </row>
   </sheetData>
@@ -22114,12 +22127,12 @@
       <selection activeCell="B20" sqref="B20:C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="5" width="41.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="41.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="22" t="s">
         <v>76</v>
       </c>
@@ -22127,7 +22140,7 @@
       <c r="C1" s="23"/>
       <c r="D1" s="23"/>
     </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="68" t="s">
         <v>26</v>
       </c>
@@ -22144,7 +22157,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="68" t="s">
         <v>27</v>
       </c>
@@ -22162,7 +22175,7 @@
         <v>7754863.6363636367</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="26" t="s">
         <v>28</v>
       </c>
@@ -22183,7 +22196,7 @@
         <v>9222000</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="26" t="s">
         <v>29</v>
       </c>
@@ -22192,7 +22205,7 @@
       <c r="D5" s="90"/>
       <c r="E5" s="73"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="26" t="s">
         <v>30</v>
       </c>
@@ -22201,7 +22214,7 @@
       <c r="D6" s="90"/>
       <c r="E6" s="73"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="26" t="s">
         <v>65</v>
       </c>
@@ -22210,7 +22223,7 @@
       <c r="D7" s="92"/>
       <c r="E7" s="73"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="26" t="s">
         <v>34</v>
       </c>
@@ -22228,7 +22241,7 @@
         <v>10729999.999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="26" t="s">
         <v>35</v>
       </c>
@@ -22237,7 +22250,7 @@
       <c r="D9" s="92"/>
       <c r="E9" s="73"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="26" t="s">
         <v>36</v>
       </c>
@@ -22255,7 +22268,7 @@
         <v>8322292.682926829</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="26" t="s">
         <v>37</v>
       </c>
@@ -22264,7 +22277,7 @@
       <c r="D11" s="92"/>
       <c r="E11" s="73"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="26" t="s">
         <v>38</v>
       </c>
@@ -22282,7 +22295,7 @@
         <v>9748971.4285714291</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="26" t="s">
         <v>39</v>
       </c>
@@ -22300,7 +22313,7 @@
         <v>17060700</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="26" t="s">
         <v>40</v>
       </c>
@@ -22309,7 +22322,7 @@
       <c r="D14" s="92"/>
       <c r="E14" s="73"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="26" t="s">
         <v>41</v>
       </c>
@@ -22327,7 +22340,7 @@
         <v>6561807.6923076911</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="26" t="s">
         <v>42</v>
       </c>
@@ -22345,7 +22358,7 @@
         <v>10035705.882352941</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="14" t="s">
         <v>43</v>
       </c>
@@ -22363,7 +22376,7 @@
         <v>4549519.9999999991</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="14" t="s">
         <v>32</v>
       </c>
@@ -22372,7 +22385,7 @@
       <c r="D18" s="90"/>
       <c r="E18" s="73"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="14" t="s">
         <v>33</v>
       </c>
@@ -22381,7 +22394,7 @@
       <c r="D19" s="90"/>
       <c r="E19" s="73"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="26" t="s">
         <v>85</v>
       </c>
@@ -22399,7 +22412,7 @@
         <v>10000410.316529894</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="26" t="s">
         <v>86</v>
       </c>
@@ -22417,7 +22430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="26" t="s">
         <v>87</v>
       </c>
@@ -22435,7 +22448,7 @@
         <v>9222000</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="26" t="s">
         <v>88</v>
       </c>
@@ -22453,7 +22466,7 @@
         <v>7935209.3023255812</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="26" t="s">
         <v>89</v>
       </c>
@@ -22471,7 +22484,7 @@
         <v>12637555.555555552</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="26" t="s">
         <v>90</v>
       </c>
@@ -22489,7 +22502,7 @@
         <v>10662937.5</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="26" t="s">
         <v>91</v>
       </c>
@@ -22507,7 +22520,7 @@
         <v>10339818.181818182</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="85" t="s">
         <v>93</v>
       </c>
@@ -22525,7 +22538,7 @@
         <v>8530350</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="86" t="s">
         <v>95</v>
       </c>
@@ -22543,13 +22556,13 @@
         <v>6561807.6923076911</v>
       </c>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C33">
         <f>9684100/(3412*1000)</f>
         <v>2.838247362250879</v>
       </c>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C34">
         <f>1/C33</f>
         <v>0.35233010811536436</v>
@@ -22573,13 +22586,13 @@
       <selection pane="topRight" activeCell="DP12" sqref="DP12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="36.28515625" customWidth="1"/>
-    <col min="2" max="211" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="36.26953125" customWidth="1"/>
+    <col min="2" max="211" width="13.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:211" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:211" x14ac:dyDescent="0.35">
       <c r="A1" s="95" t="s">
         <v>106</v>
       </c>
@@ -23214,7 +23227,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="2" spans="1:211" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:211" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -23850,7 +23863,7 @@
         <v>7754863.6363636367</v>
       </c>
     </row>
-    <row r="3" spans="1:211" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:211" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>317</v>
       </c>
@@ -24486,7 +24499,7 @@
         <v>4549519.9999999991</v>
       </c>
     </row>
-    <row r="4" spans="1:211" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:211" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>82</v>
       </c>
@@ -25122,7 +25135,7 @@
         <v>6561807.6923076911</v>
       </c>
     </row>
-    <row r="5" spans="1:211" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:211" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>318</v>
       </c>
@@ -25758,7 +25771,7 @@
         <v>9222000</v>
       </c>
     </row>
-    <row r="6" spans="1:211" s="97" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:211" s="97" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="97" t="s">
         <v>29</v>
       </c>
@@ -26393,7 +26406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:211" s="97" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:211" s="97" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="97" t="s">
         <v>30</v>
       </c>
@@ -27028,7 +27041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:211" s="97" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:211" s="97" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="97" t="s">
         <v>319</v>
       </c>
@@ -27663,7 +27676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:211" s="97" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:211" s="97" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="97" t="s">
         <v>33</v>
       </c>
@@ -28298,7 +28311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:211" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:211" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -28934,7 +28947,7 @@
         <v>10729999.999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:211" s="97" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:211" s="97" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="97" t="s">
         <v>35</v>
       </c>
@@ -29569,7 +29582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:211" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:211" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>85</v>
       </c>
@@ -30205,7 +30218,7 @@
         <v>10000410.316529894</v>
       </c>
     </row>
-    <row r="13" spans="1:211" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:211" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>320</v>
       </c>
@@ -30841,7 +30854,7 @@
         <v>10035705.882352941</v>
       </c>
     </row>
-    <row r="14" spans="1:211" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:211" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -31477,7 +31490,7 @@
         <v>8322292.682926829</v>
       </c>
     </row>
-    <row r="15" spans="1:211" s="97" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:211" s="97" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="97" t="s">
         <v>37</v>
       </c>
@@ -32112,7 +32125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:211" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:211" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -32748,7 +32761,7 @@
         <v>9748971.4285714291</v>
       </c>
     </row>
-    <row r="17" spans="1:211" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:211" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>86</v>
       </c>
@@ -33384,7 +33397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:211" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:211" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -34020,7 +34033,7 @@
         <v>17060700</v>
       </c>
     </row>
-    <row r="19" spans="1:211" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:211" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>87</v>
       </c>
@@ -34656,7 +34669,7 @@
         <v>9222000</v>
       </c>
     </row>
-    <row r="20" spans="1:211" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:211" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>88</v>
       </c>
@@ -35292,7 +35305,7 @@
         <v>7935209.3023255812</v>
       </c>
     </row>
-    <row r="21" spans="1:211" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:211" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>89</v>
       </c>
@@ -35928,7 +35941,7 @@
         <v>12637555.555555552</v>
       </c>
     </row>
-    <row r="22" spans="1:211" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:211" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>90</v>
       </c>
@@ -36564,7 +36577,7 @@
         <v>10662937.5</v>
       </c>
     </row>
-    <row r="23" spans="1:211" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:211" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>91</v>
       </c>
@@ -37200,7 +37213,7 @@
         <v>10339818.181818182</v>
       </c>
     </row>
-    <row r="24" spans="1:211" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:211" x14ac:dyDescent="0.35">
       <c r="A24" s="77" t="s">
         <v>93</v>
       </c>
@@ -37836,7 +37849,7 @@
         <v>8530350</v>
       </c>
     </row>
-    <row r="25" spans="1:211" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:211" x14ac:dyDescent="0.35">
       <c r="A25" s="77" t="s">
         <v>95</v>
       </c>
@@ -38490,6 +38503,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A08BDF573E2FFD46A5F05DED9AF68025" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f85c0eb68479ad8b8987805fd5b8836b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="00484652-42e1-479e-92f4-fb0efddcdf60" xmlns:ns3="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f7dbc72841229da9eaa30ebb1456cd70" ns2:_="" ns3:_="">
     <xsd:import namespace="00484652-42e1-479e-92f4-fb0efddcdf60"/>
@@ -38712,15 +38734,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65D5533F-31BC-4F03-AAAA-A9D02BE279DF}">
   <ds:schemaRefs>
@@ -38733,6 +38746,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE53B774-577E-4215-97DA-2991DC7CFD5B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62BCA187-4C93-42D0-A2D6-6C2E53429CBC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -38749,12 +38770,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE53B774-577E-4215-97DA-2991DC7CFD5B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>